--- a/data_month/zb/工业/工业主要产品产量/光电子器件.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/光电子器件.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3218 +454,3736 @@
           <t>光电子器件产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>光电子器件产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.90000000000001</v>
+        <v>44.1028715517145</v>
       </c>
       <c r="C2" t="n">
-        <v>29.56</v>
+        <v>14.241413</v>
       </c>
       <c r="D2" t="n">
-        <v>236.1</v>
+        <v>14.241413</v>
       </c>
       <c r="E2" t="n">
-        <v>30.9</v>
+        <v>44.1028715517145</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14.241413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-50.8</v>
+        <v>-19.5</v>
       </c>
       <c r="C3" t="n">
-        <v>31.62</v>
+        <v>11.25</v>
       </c>
       <c r="D3" t="n">
-        <v>267.72</v>
+        <v>25.49</v>
       </c>
       <c r="E3" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.248587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.5</v>
+        <v>-14.9</v>
       </c>
       <c r="C4" t="n">
-        <v>34.1</v>
+        <v>13.14</v>
       </c>
       <c r="D4" t="n">
-        <v>305.53</v>
+        <v>38.67</v>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>-1.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.1028715517145</v>
+        <v>18.4</v>
       </c>
       <c r="C5" t="n">
-        <v>14.241413</v>
+        <v>34.32</v>
       </c>
       <c r="D5" t="n">
-        <v>14.241413</v>
+        <v>72.97</v>
       </c>
       <c r="E5" t="n">
-        <v>44.1028715517145</v>
+        <v>11.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.5</v>
+        <v>5.7</v>
       </c>
       <c r="C6" t="n">
-        <v>11.25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>25.49</v>
+        <v>93.45</v>
       </c>
       <c r="E6" t="n">
-        <v>6.9</v>
+        <v>9.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>13.14</v>
+        <v>26.38</v>
       </c>
       <c r="D7" t="n">
-        <v>38.67</v>
+        <v>125.48</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.5</v>
+        <v>16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.4</v>
+        <v>54.9</v>
       </c>
       <c r="C8" t="n">
-        <v>34.32</v>
+        <v>26.52</v>
       </c>
       <c r="D8" t="n">
-        <v>72.97</v>
+        <v>152.01</v>
       </c>
       <c r="E8" t="n">
-        <v>11.4</v>
+        <v>21.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>26.52999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.7</v>
+        <v>39.1</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>27.17</v>
       </c>
       <c r="D9" t="n">
-        <v>93.45</v>
+        <v>179.17</v>
       </c>
       <c r="E9" t="n">
-        <v>9.4</v>
+        <v>23.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>41.6</v>
       </c>
       <c r="C10" t="n">
-        <v>26.38</v>
+        <v>28.83</v>
       </c>
       <c r="D10" t="n">
-        <v>125.48</v>
+        <v>206.51</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.9</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>26.52</v>
+        <v>29.56</v>
       </c>
       <c r="D11" t="n">
-        <v>152.01</v>
+        <v>236.1</v>
       </c>
       <c r="E11" t="n">
-        <v>21.3</v>
+        <v>30.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.1</v>
+        <v>-50.8</v>
       </c>
       <c r="C12" t="n">
-        <v>27.17</v>
+        <v>31.62</v>
       </c>
       <c r="D12" t="n">
-        <v>179.17</v>
+        <v>267.72</v>
       </c>
       <c r="E12" t="n">
-        <v>23.7</v>
+        <v>9.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>31.62000000000003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.6</v>
+        <v>98.5</v>
       </c>
       <c r="C13" t="n">
-        <v>28.83</v>
+        <v>34.1</v>
       </c>
       <c r="D13" t="n">
-        <v>206.51</v>
+        <v>305.53</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="F13" t="n">
+        <v>37.80999999999995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-3.6</v>
-      </c>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>40.74</v>
+        <v>140.24</v>
       </c>
       <c r="D14" t="n">
-        <v>517.41</v>
-      </c>
-      <c r="E14" t="n">
-        <v>55.7</v>
+        <v>140.24</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>140.24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>39.84</v>
+        <v>41.98</v>
       </c>
       <c r="D15" t="n">
-        <v>557.87</v>
+        <v>182.22</v>
       </c>
       <c r="E15" t="n">
-        <v>49.4</v>
+        <v>48.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>41.97999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-28.4</v>
+        <v>67.7</v>
       </c>
       <c r="C16" t="n">
-        <v>30.12</v>
+        <v>34.97</v>
       </c>
       <c r="D16" t="n">
-        <v>587.95</v>
+        <v>190.58</v>
       </c>
       <c r="E16" t="n">
-        <v>41.8</v>
+        <v>94.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8.360000000000014</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>41.6</v>
+      </c>
       <c r="C17" t="n">
-        <v>140.24</v>
+        <v>46.33</v>
       </c>
       <c r="D17" t="n">
-        <v>140.24</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+        <v>237.43</v>
+      </c>
+      <c r="E17" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>46.84999999999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8.699999999999999</v>
+        <v>57.1</v>
       </c>
       <c r="C18" t="n">
-        <v>41.98</v>
+        <v>48.47</v>
       </c>
       <c r="D18" t="n">
-        <v>182.22</v>
+        <v>287.67</v>
       </c>
       <c r="E18" t="n">
-        <v>48.4</v>
+        <v>76.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>50.24000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.7</v>
+        <v>49.2</v>
       </c>
       <c r="C19" t="n">
-        <v>34.97</v>
+        <v>46.22</v>
       </c>
       <c r="D19" t="n">
-        <v>190.58</v>
+        <v>340.69</v>
       </c>
       <c r="E19" t="n">
-        <v>94.3</v>
+        <v>71.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>53.01999999999998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41.6</v>
+        <v>37.4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.33</v>
+        <v>49.77</v>
       </c>
       <c r="D20" t="n">
-        <v>237.43</v>
+        <v>399.1</v>
       </c>
       <c r="E20" t="n">
-        <v>81.3</v>
+        <v>88</v>
+      </c>
+      <c r="F20" t="n">
+        <v>58.41000000000003</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.1</v>
+        <v>15.5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.47</v>
+        <v>45.87</v>
       </c>
       <c r="D21" t="n">
-        <v>287.67</v>
+        <v>440.98</v>
       </c>
       <c r="E21" t="n">
-        <v>76.2</v>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>41.88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.2</v>
+        <v>4.4</v>
       </c>
       <c r="C22" t="n">
-        <v>46.22</v>
+        <v>43.57</v>
       </c>
       <c r="D22" t="n">
-        <v>340.69</v>
+        <v>476.82</v>
       </c>
       <c r="E22" t="n">
-        <v>71.8</v>
+        <v>64.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>35.83999999999997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.4</v>
+        <v>-3.6</v>
       </c>
       <c r="C23" t="n">
-        <v>49.77</v>
+        <v>40.74</v>
       </c>
       <c r="D23" t="n">
-        <v>399.1</v>
+        <v>517.41</v>
       </c>
       <c r="E23" t="n">
-        <v>88</v>
+        <v>55.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>40.58999999999997</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.5</v>
+        <v>-8</v>
       </c>
       <c r="C24" t="n">
-        <v>45.87</v>
+        <v>39.84</v>
       </c>
       <c r="D24" t="n">
-        <v>440.98</v>
+        <v>557.87</v>
       </c>
       <c r="E24" t="n">
-        <v>76.59999999999999</v>
+        <v>49.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>40.46000000000004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.4</v>
+        <v>-28.4</v>
       </c>
       <c r="C25" t="n">
-        <v>43.57</v>
+        <v>30.12</v>
       </c>
       <c r="D25" t="n">
-        <v>476.82</v>
+        <v>587.95</v>
       </c>
       <c r="E25" t="n">
-        <v>64.3</v>
+        <v>41.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30.08000000000004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-12.7</v>
+        <v>-14.0613082656396</v>
       </c>
       <c r="C26" t="n">
-        <v>67.47</v>
+        <v>33.270807</v>
       </c>
       <c r="D26" t="n">
-        <v>801.51</v>
+        <v>33.270807</v>
       </c>
       <c r="E26" t="n">
-        <v>17.6</v>
+        <v>-14.0613082656396</v>
+      </c>
+      <c r="F26" t="n">
+        <v>33.270807</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.6</v>
+        <v>14.2</v>
       </c>
       <c r="C27" t="n">
-        <v>70.88</v>
+        <v>33.39</v>
       </c>
       <c r="D27" t="n">
-        <v>872.34</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>15.9</v>
+        <v>-1.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>33.40919300000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.3</v>
+        <v>-6.7</v>
       </c>
       <c r="C28" t="n">
-        <v>78.95</v>
+        <v>53.54</v>
       </c>
       <c r="D28" t="n">
-        <v>936.13</v>
+        <v>146.87</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>-0.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>80.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-14.0613082656396</v>
+        <v>-28.8</v>
       </c>
       <c r="C29" t="n">
-        <v>33.270807</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>33.270807</v>
+        <v>233.63</v>
       </c>
       <c r="E29" t="n">
-        <v>-14.0613082656396</v>
+        <v>-20.6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>86.75999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14.2</v>
+        <v>-21</v>
       </c>
       <c r="C30" t="n">
-        <v>33.39</v>
+        <v>66.25</v>
       </c>
       <c r="D30" t="n">
-        <v>66.68000000000001</v>
+        <v>301.37</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.8</v>
+        <v>-20.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>67.74000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-6.7</v>
+        <v>-26.3438086575844</v>
       </c>
       <c r="C31" t="n">
-        <v>53.54</v>
+        <v>63.656808</v>
       </c>
       <c r="D31" t="n">
-        <v>146.87</v>
+        <v>330.697753</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.2</v>
+        <v>-14.2651264060803</v>
+      </c>
+      <c r="F31" t="n">
+        <v>29.32775299999997</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-28.8</v>
+        <v>-9.44857942657622</v>
       </c>
       <c r="C32" t="n">
-        <v>64.31999999999999</v>
+        <v>70.287696</v>
       </c>
       <c r="D32" t="n">
-        <v>233.63</v>
+        <v>595.210554</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.6</v>
+        <v>31.8951174795705</v>
+      </c>
+      <c r="F32" t="n">
+        <v>264.512801</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-21</v>
+        <v>-12.6</v>
       </c>
       <c r="C33" t="n">
-        <v>66.25</v>
+        <v>63.1</v>
       </c>
       <c r="D33" t="n">
-        <v>301.37</v>
+        <v>660.3099999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>-20.7</v>
+        <v>26.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>65.09944599999994</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-26.3438086575844</v>
+        <v>-10.0635388296245</v>
       </c>
       <c r="C34" t="n">
-        <v>63.656808</v>
+        <v>68.672155</v>
       </c>
       <c r="D34" t="n">
-        <v>330.697753</v>
+        <v>736.343896</v>
       </c>
       <c r="E34" t="n">
-        <v>-14.2651264060803</v>
+        <v>21.1670989384897</v>
+      </c>
+      <c r="F34" t="n">
+        <v>76.03389600000003</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-9.44857942657622</v>
+        <v>-12.7</v>
       </c>
       <c r="C35" t="n">
-        <v>70.287696</v>
+        <v>67.47</v>
       </c>
       <c r="D35" t="n">
-        <v>595.210554</v>
+        <v>801.51</v>
       </c>
       <c r="E35" t="n">
-        <v>31.8951174795705</v>
+        <v>17.6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>65.16610400000002</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-12.6</v>
+        <v>2.6</v>
       </c>
       <c r="C36" t="n">
-        <v>63.1</v>
+        <v>70.88</v>
       </c>
       <c r="D36" t="n">
-        <v>660.3099999999999</v>
+        <v>872.34</v>
       </c>
       <c r="E36" t="n">
-        <v>26.3</v>
+        <v>15.9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>70.83000000000004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-10.0635388296245</v>
+        <v>48.3</v>
       </c>
       <c r="C37" t="n">
-        <v>68.672155</v>
+        <v>78.95</v>
       </c>
       <c r="D37" t="n">
-        <v>736.343896</v>
+        <v>936.13</v>
       </c>
       <c r="E37" t="n">
-        <v>21.1670989384897</v>
+        <v>16</v>
+      </c>
+      <c r="F37" t="n">
+        <v>63.78999999999996</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>38.9544698871931</v>
+        <v>7.55244755244756</v>
       </c>
       <c r="C38" t="n">
-        <v>102.848332</v>
+        <v>77.103055</v>
       </c>
       <c r="D38" t="n">
-        <v>972.6271829999999</v>
+        <v>77.103055</v>
       </c>
       <c r="E38" t="n">
-        <v>54.7458716932923</v>
+        <v>7.55244755244756</v>
+      </c>
+      <c r="F38" t="n">
+        <v>77.103055</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>24.1</v>
+        <v>183.91855690527</v>
       </c>
       <c r="C39" t="n">
-        <v>96.2</v>
+        <v>183.55446</v>
       </c>
       <c r="D39" t="n">
-        <v>1075.7</v>
+        <v>260.657515</v>
       </c>
       <c r="E39" t="n">
-        <v>52.3</v>
+        <v>91.55547215985921</v>
+      </c>
+      <c r="F39" t="n">
+        <v>183.55446</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.7</v>
+        <v>78</v>
       </c>
       <c r="C40" t="n">
-        <v>101.1</v>
+        <v>94</v>
       </c>
       <c r="D40" t="n">
-        <v>1170</v>
+        <v>234.7</v>
       </c>
       <c r="E40" t="n">
-        <v>49.1</v>
+        <v>74</v>
+      </c>
+      <c r="F40" t="n">
+        <v>234.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.55244755244756</v>
+        <v>48</v>
       </c>
       <c r="C41" t="n">
-        <v>77.103055</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>77.103055</v>
+        <v>327.1</v>
       </c>
       <c r="E41" t="n">
-        <v>7.55244755244756</v>
+        <v>64.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>92.40000000000003</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>183.91855690527</v>
+        <v>59.2431865594041</v>
       </c>
       <c r="C42" t="n">
-        <v>183.55446</v>
+        <v>100.986793</v>
       </c>
       <c r="D42" t="n">
-        <v>260.657515</v>
+        <v>429.273163</v>
       </c>
       <c r="E42" t="n">
-        <v>91.55547215985921</v>
+        <v>63.2072281544769</v>
+      </c>
+      <c r="F42" t="n">
+        <v>102.173163</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78</v>
+        <v>60.9</v>
       </c>
       <c r="C43" t="n">
-        <v>94</v>
+        <v>115.4</v>
       </c>
       <c r="D43" t="n">
-        <v>234.7</v>
+        <v>544.6</v>
       </c>
       <c r="E43" t="n">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="F43" t="n">
+        <v>115.326837</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48</v>
+        <v>42.6</v>
       </c>
       <c r="C44" t="n">
-        <v>91.90000000000001</v>
+        <v>110.5</v>
       </c>
       <c r="D44" t="n">
-        <v>327.1</v>
+        <v>652.5</v>
       </c>
       <c r="E44" t="n">
-        <v>64.5</v>
+        <v>59.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>107.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>59.2431865594041</v>
+        <v>43.9</v>
       </c>
       <c r="C45" t="n">
-        <v>100.986793</v>
+        <v>104.2</v>
       </c>
       <c r="D45" t="n">
-        <v>429.273163</v>
+        <v>767.4</v>
       </c>
       <c r="E45" t="n">
-        <v>63.2072281544769</v>
+        <v>58.8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>114.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>60.9</v>
+        <v>37.8</v>
       </c>
       <c r="C46" t="n">
-        <v>115.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>544.6</v>
+        <v>869.6</v>
       </c>
       <c r="E46" t="n">
-        <v>64</v>
+        <v>57.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>102.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>42.6</v>
+        <v>38.9544698871931</v>
       </c>
       <c r="C47" t="n">
-        <v>110.5</v>
+        <v>102.848332</v>
       </c>
       <c r="D47" t="n">
-        <v>652.5</v>
+        <v>972.6271829999999</v>
       </c>
       <c r="E47" t="n">
-        <v>59.3</v>
+        <v>54.7458716932923</v>
+      </c>
+      <c r="F47" t="n">
+        <v>103.0271829999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>43.9</v>
+        <v>24.1</v>
       </c>
       <c r="C48" t="n">
-        <v>104.2</v>
+        <v>96.2</v>
       </c>
       <c r="D48" t="n">
-        <v>767.4</v>
+        <v>1075.7</v>
       </c>
       <c r="E48" t="n">
-        <v>58.8</v>
+        <v>52.3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>103.0728170000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>37.8</v>
+        <v>16.7</v>
       </c>
       <c r="C49" t="n">
-        <v>99.90000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="D49" t="n">
-        <v>869.6</v>
+        <v>1170</v>
       </c>
       <c r="E49" t="n">
-        <v>57.3</v>
+        <v>49.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>94.29999999999995</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>27.6</v>
+        <v>15.4208269120121</v>
       </c>
       <c r="C50" t="n">
-        <v>141.9</v>
+        <v>87.045106</v>
       </c>
       <c r="D50" t="n">
-        <v>1303.5</v>
+        <v>87.045106</v>
       </c>
       <c r="E50" t="n">
-        <v>37.2</v>
+        <v>15.4208269120121</v>
+      </c>
+      <c r="F50" t="n">
+        <v>87.045106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>54.4</v>
+        <v>21.4</v>
       </c>
       <c r="C51" t="n">
-        <v>140.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>1445.1</v>
+        <v>167.1</v>
       </c>
       <c r="E51" t="n">
-        <v>41.5</v>
+        <v>18.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.05489399999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>51.8</v>
+        <v>40.9</v>
       </c>
       <c r="C52" t="n">
-        <v>146.5</v>
+        <v>122.7</v>
       </c>
       <c r="D52" t="n">
-        <v>1591.6</v>
+        <v>287.6</v>
       </c>
       <c r="E52" t="n">
-        <v>42.3</v>
+        <v>27.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>120.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15.4208269120121</v>
+        <v>28.7</v>
       </c>
       <c r="C53" t="n">
-        <v>87.045106</v>
+        <v>121.5</v>
       </c>
       <c r="D53" t="n">
-        <v>87.045106</v>
+        <v>411.9</v>
       </c>
       <c r="E53" t="n">
-        <v>15.4208269120121</v>
+        <v>27.7</v>
+      </c>
+      <c r="F53" t="n">
+        <v>124.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>21.4</v>
+        <v>37.8</v>
       </c>
       <c r="C54" t="n">
-        <v>80.09999999999999</v>
+        <v>141.5</v>
       </c>
       <c r="D54" t="n">
-        <v>167.1</v>
+        <v>553.2</v>
       </c>
       <c r="E54" t="n">
-        <v>18.3</v>
+        <v>29.6</v>
+      </c>
+      <c r="F54" t="n">
+        <v>141.3000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>40.9</v>
+        <v>26.3</v>
       </c>
       <c r="C55" t="n">
-        <v>122.7</v>
+        <v>142.5</v>
       </c>
       <c r="D55" t="n">
-        <v>287.6</v>
+        <v>701.9</v>
       </c>
       <c r="E55" t="n">
-        <v>27.7</v>
+        <v>30.1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>148.6999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>28.7</v>
+        <v>51.1</v>
       </c>
       <c r="C56" t="n">
-        <v>121.5</v>
+        <v>151.3</v>
       </c>
       <c r="D56" t="n">
-        <v>411.9</v>
+        <v>857</v>
       </c>
       <c r="E56" t="n">
-        <v>27.7</v>
+        <v>34.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>155.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>37.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>141.5</v>
+        <v>158.5</v>
       </c>
       <c r="D57" t="n">
-        <v>553.2</v>
+        <v>1009.6</v>
       </c>
       <c r="E57" t="n">
-        <v>29.6</v>
+        <v>39.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>152.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>26.3</v>
+        <v>36.1</v>
       </c>
       <c r="C58" t="n">
-        <v>142.5</v>
+        <v>150.3</v>
       </c>
       <c r="D58" t="n">
-        <v>701.9</v>
+        <v>1162.6</v>
       </c>
       <c r="E58" t="n">
-        <v>30.1</v>
+        <v>38.7</v>
+      </c>
+      <c r="F58" t="n">
+        <v>152.9999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>51.1</v>
+        <v>27.6</v>
       </c>
       <c r="C59" t="n">
-        <v>151.3</v>
+        <v>141.9</v>
       </c>
       <c r="D59" t="n">
-        <v>857</v>
+        <v>1303.5</v>
       </c>
       <c r="E59" t="n">
-        <v>34.6</v>
+        <v>37.2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>140.9000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>71.40000000000001</v>
+        <v>54.4</v>
       </c>
       <c r="C60" t="n">
-        <v>158.5</v>
+        <v>140.8</v>
       </c>
       <c r="D60" t="n">
-        <v>1009.6</v>
+        <v>1445.1</v>
       </c>
       <c r="E60" t="n">
-        <v>39.6</v>
+        <v>41.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>141.5999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>36.1</v>
+        <v>51.8</v>
       </c>
       <c r="C61" t="n">
-        <v>150.3</v>
+        <v>146.5</v>
       </c>
       <c r="D61" t="n">
-        <v>1162.6</v>
+        <v>1591.6</v>
       </c>
       <c r="E61" t="n">
-        <v>38.7</v>
+        <v>42.3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>146.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16.3</v>
+        <v>28.5057471264368</v>
       </c>
       <c r="C62" t="n">
-        <v>215.7</v>
+        <v>111.8</v>
       </c>
       <c r="D62" t="n">
-        <v>2079</v>
+        <v>111.8</v>
       </c>
       <c r="E62" t="n">
-        <v>17.5</v>
+        <v>28.5057471264368</v>
+      </c>
+      <c r="F62" t="n">
+        <v>111.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>12.6</v>
+        <v>26.8</v>
       </c>
       <c r="C63" t="n">
-        <v>228.9</v>
+        <v>156.3</v>
       </c>
       <c r="D63" t="n">
-        <v>2303.4</v>
+        <v>268.1</v>
       </c>
       <c r="E63" t="n">
-        <v>11.8</v>
+        <v>10.9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>156.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>23.5</v>
+        <v>32.2</v>
       </c>
       <c r="C64" t="n">
-        <v>251.4</v>
+        <v>196.2</v>
       </c>
       <c r="D64" t="n">
-        <v>2550.1</v>
+        <v>470.3</v>
       </c>
       <c r="E64" t="n">
-        <v>12.5</v>
+        <v>20.4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>202.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>28.5057471264368</v>
+        <v>36.3</v>
       </c>
       <c r="C65" t="n">
-        <v>111.8</v>
+        <v>234.1</v>
       </c>
       <c r="D65" t="n">
-        <v>111.8</v>
+        <v>704.1</v>
       </c>
       <c r="E65" t="n">
-        <v>28.5057471264368</v>
+        <v>20.4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>233.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>26.8</v>
+        <v>21.3</v>
       </c>
       <c r="C66" t="n">
-        <v>156.3</v>
+        <v>240.6</v>
       </c>
       <c r="D66" t="n">
-        <v>268.1</v>
+        <v>929.8</v>
       </c>
       <c r="E66" t="n">
-        <v>10.9</v>
+        <v>17.3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>225.6999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>32.2</v>
+        <v>-11.1</v>
       </c>
       <c r="C67" t="n">
-        <v>196.2</v>
+        <v>435.9</v>
       </c>
       <c r="D67" t="n">
-        <v>470.3</v>
+        <v>2332.9</v>
       </c>
       <c r="E67" t="n">
-        <v>20.4</v>
+        <v>-5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1403.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>36.3</v>
+        <v>-0.7</v>
       </c>
       <c r="C68" t="n">
-        <v>234.1</v>
+        <v>503.5</v>
       </c>
       <c r="D68" t="n">
-        <v>704.1</v>
+        <v>2974.3</v>
       </c>
       <c r="E68" t="n">
-        <v>20.4</v>
+        <v>-0.4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>641.4000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>21.3</v>
+        <v>9</v>
       </c>
       <c r="C69" t="n">
-        <v>240.6</v>
+        <v>586</v>
       </c>
       <c r="D69" t="n">
-        <v>929.8</v>
+        <v>3536.5</v>
       </c>
       <c r="E69" t="n">
-        <v>17.3</v>
+        <v>0.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>562.1999999999998</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-11.1</v>
+        <v>23.2</v>
       </c>
       <c r="C70" t="n">
-        <v>435.9</v>
+        <v>236.7</v>
       </c>
       <c r="D70" t="n">
-        <v>2332.9</v>
+        <v>1867</v>
       </c>
       <c r="E70" t="n">
-        <v>-5</v>
+        <v>18</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1867</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.7</v>
+        <v>16.3</v>
       </c>
       <c r="C71" t="n">
-        <v>503.5</v>
+        <v>215.7</v>
       </c>
       <c r="D71" t="n">
-        <v>2974.3</v>
+        <v>2079</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.4</v>
+        <v>17.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9</v>
+        <v>12.6</v>
       </c>
       <c r="C72" t="n">
-        <v>586</v>
+        <v>228.9</v>
       </c>
       <c r="D72" t="n">
-        <v>3536.5</v>
+        <v>2303.4</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3</v>
+        <v>11.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>224.4000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="C73" t="n">
-        <v>236.7</v>
+        <v>251.4</v>
       </c>
       <c r="D73" t="n">
-        <v>1867</v>
+        <v>2550.1</v>
       </c>
       <c r="E73" t="n">
-        <v>18</v>
+        <v>12.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>246.6999999999998</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>35.9148898988962</v>
-      </c>
-      <c r="C74" t="n">
-        <v>315.988026</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>2725.171716</v>
+        <v>435.2</v>
       </c>
       <c r="E74" t="n">
-        <v>27.7127049022812</v>
+        <v>44.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>435.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>31.0864998983588</v>
+        <v>31.296159001535</v>
       </c>
       <c r="C75" t="n">
-        <v>312.545499</v>
+        <v>240.582447</v>
       </c>
       <c r="D75" t="n">
-        <v>3046.221538</v>
+        <v>637.57569</v>
       </c>
       <c r="E75" t="n">
-        <v>29.1957371613599</v>
+        <v>41.7084229403977</v>
+      </c>
+      <c r="F75" t="n">
+        <v>202.37569</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>22.961821861015</v>
+        <v>21.2779298011161</v>
       </c>
       <c r="C76" t="n">
-        <v>304.279673</v>
+        <v>273.365733</v>
       </c>
       <c r="D76" t="n">
-        <v>3354.141943</v>
+        <v>888.115768</v>
       </c>
       <c r="E76" t="n">
-        <v>28.7810369917312</v>
+        <v>29.0378456385364</v>
+      </c>
+      <c r="F76" t="n">
+        <v>250.540078</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>22.8745025670727</v>
+      </c>
+      <c r="C77" t="n">
+        <v>298.338453</v>
+      </c>
       <c r="D77" t="n">
-        <v>435.2</v>
+        <v>1186.950426</v>
       </c>
       <c r="E77" t="n">
-        <v>44.2</v>
+        <v>26.8247569559791</v>
+      </c>
+      <c r="F77" t="n">
+        <v>298.8346580000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>31.296159001535</v>
+        <v>26.4714164759655</v>
       </c>
       <c r="C78" t="n">
-        <v>240.582447</v>
+        <v>303.21954</v>
       </c>
       <c r="D78" t="n">
-        <v>637.57569</v>
+        <v>1488.143451</v>
       </c>
       <c r="E78" t="n">
-        <v>41.7084229403977</v>
+        <v>27.0416004129193</v>
+      </c>
+      <c r="F78" t="n">
+        <v>301.1930249999998</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>21.2779298011161</v>
+        <v>25.8593824995669</v>
       </c>
       <c r="C79" t="n">
-        <v>273.365733</v>
+        <v>304.872627</v>
       </c>
       <c r="D79" t="n">
-        <v>888.115768</v>
+        <v>1793.961825</v>
       </c>
       <c r="E79" t="n">
-        <v>29.0378456385364</v>
+        <v>24.9679188196141</v>
+      </c>
+      <c r="F79" t="n">
+        <v>305.8183740000002</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>22.8745025670727</v>
+        <v>29.8251027487777</v>
       </c>
       <c r="C80" t="n">
-        <v>298.338453</v>
+        <v>313.452383</v>
       </c>
       <c r="D80" t="n">
-        <v>1186.950426</v>
+        <v>2100.699865</v>
       </c>
       <c r="E80" t="n">
-        <v>26.8247569559791</v>
+        <v>27.524950783027</v>
+      </c>
+      <c r="F80" t="n">
+        <v>306.73804</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>26.4714164759655</v>
+        <v>25.8198415504679</v>
       </c>
       <c r="C81" t="n">
-        <v>303.21954</v>
+        <v>316.519506</v>
       </c>
       <c r="D81" t="n">
-        <v>1488.143451</v>
+        <v>2416.155345</v>
       </c>
       <c r="E81" t="n">
-        <v>27.0416004129193</v>
+        <v>26.5275055148595</v>
+      </c>
+      <c r="F81" t="n">
+        <v>315.4554800000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>25.8593824995669</v>
+        <v>35.9148898988962</v>
       </c>
       <c r="C82" t="n">
-        <v>304.872627</v>
+        <v>315.988026</v>
       </c>
       <c r="D82" t="n">
-        <v>1793.961825</v>
+        <v>2725.171716</v>
       </c>
       <c r="E82" t="n">
-        <v>24.9679188196141</v>
+        <v>27.7127049022812</v>
+      </c>
+      <c r="F82" t="n">
+        <v>309.0163709999997</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>29.8251027487777</v>
+        <v>31.0864998983588</v>
       </c>
       <c r="C83" t="n">
-        <v>313.452383</v>
+        <v>312.545499</v>
       </c>
       <c r="D83" t="n">
-        <v>2100.699865</v>
+        <v>3046.221538</v>
       </c>
       <c r="E83" t="n">
-        <v>27.524950783027</v>
+        <v>29.1957371613599</v>
+      </c>
+      <c r="F83" t="n">
+        <v>321.0498219999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>25.8198415504679</v>
+        <v>22.961821861015</v>
       </c>
       <c r="C84" t="n">
-        <v>316.519506</v>
+        <v>304.279673</v>
       </c>
       <c r="D84" t="n">
-        <v>2416.155345</v>
+        <v>3354.141943</v>
       </c>
       <c r="E84" t="n">
-        <v>26.5275055148595</v>
+        <v>28.7810369917312</v>
+      </c>
+      <c r="F84" t="n">
+        <v>307.9204050000003</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>13.2491199658592</v>
-      </c>
-      <c r="C85" t="n">
-        <v>449.281723</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>4102.849389</v>
+        <v>478.499033999999</v>
       </c>
       <c r="E85" t="n">
-        <v>18.8460841284982</v>
+        <v>17.3524382998075</v>
+      </c>
+      <c r="F85" t="n">
+        <v>478.499033999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13.2610515136124</v>
+        <v>30.2255197347803</v>
       </c>
       <c r="C86" t="n">
-        <v>451.669252</v>
+        <v>356.989672</v>
       </c>
       <c r="D86" t="n">
-        <v>4557.476727</v>
+        <v>921.073001</v>
       </c>
       <c r="E86" t="n">
-        <v>18.3912053381635</v>
+        <v>21.8356897788496</v>
+      </c>
+      <c r="F86" t="n">
+        <v>442.5739670000009</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>26.1769448311005</v>
+        <v>18.831345965822</v>
       </c>
       <c r="C87" t="n">
-        <v>490.642376</v>
+        <v>382.464726</v>
       </c>
       <c r="D87" t="n">
-        <v>5046.8877</v>
+        <v>1291.567653</v>
       </c>
       <c r="E87" t="n">
-        <v>18.9881973860218</v>
+        <v>22.064363060202</v>
+      </c>
+      <c r="F87" t="n">
+        <v>370.4946520000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>15.6132881738518</v>
+      </c>
+      <c r="C88" t="n">
+        <v>483.224717</v>
+      </c>
       <c r="D88" t="n">
-        <v>478.499033999999</v>
+        <v>1937.617788</v>
       </c>
       <c r="E88" t="n">
-        <v>17.3524382998075</v>
+        <v>20.3974619520935</v>
+      </c>
+      <c r="F88" t="n">
+        <v>646.050135</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>30.2255197347803</v>
+        <v>8.64785957658642</v>
       </c>
       <c r="C89" t="n">
-        <v>356.989672</v>
+        <v>431.907344</v>
       </c>
       <c r="D89" t="n">
-        <v>921.073001</v>
+        <v>2245.224586</v>
       </c>
       <c r="E89" t="n">
-        <v>21.8356897788496</v>
+        <v>17.7277473061582</v>
+      </c>
+      <c r="F89" t="n">
+        <v>307.6067979999998</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>18.831345965822</v>
+        <v>21.8626743280249</v>
       </c>
       <c r="C90" t="n">
-        <v>382.464726</v>
+        <v>480.269715</v>
       </c>
       <c r="D90" t="n">
-        <v>1291.567653</v>
+        <v>2716.868495</v>
       </c>
       <c r="E90" t="n">
-        <v>22.064363060202</v>
+        <v>18.9509907855033</v>
+      </c>
+      <c r="F90" t="n">
+        <v>471.6439090000003</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>15.6132881738518</v>
+        <v>20.0629977649416</v>
       </c>
       <c r="C91" t="n">
-        <v>483.224717</v>
+        <v>476.699411</v>
       </c>
       <c r="D91" t="n">
-        <v>1937.617788</v>
+        <v>3181.839555</v>
       </c>
       <c r="E91" t="n">
-        <v>20.3974619520935</v>
+        <v>18.6858275506986</v>
+      </c>
+      <c r="F91" t="n">
+        <v>464.9710599999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>8.64785957658642</v>
+        <v>22.1858574912254</v>
       </c>
       <c r="C92" t="n">
-        <v>431.907344</v>
+        <v>475.65682</v>
       </c>
       <c r="D92" t="n">
-        <v>2245.224586</v>
+        <v>3651.106583</v>
       </c>
       <c r="E92" t="n">
-        <v>17.7277473061582</v>
+        <v>19.320709448789</v>
+      </c>
+      <c r="F92" t="n">
+        <v>469.2670279999998</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>21.8626743280249</v>
+        <v>13.2491199658592</v>
       </c>
       <c r="C93" t="n">
-        <v>480.269715</v>
+        <v>449.281723</v>
       </c>
       <c r="D93" t="n">
-        <v>2716.868495</v>
+        <v>4102.849389</v>
       </c>
       <c r="E93" t="n">
-        <v>18.9509907855033</v>
+        <v>18.8460841284982</v>
+      </c>
+      <c r="F93" t="n">
+        <v>451.7428060000002</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>20.0629977649416</v>
+        <v>13.2610515136124</v>
       </c>
       <c r="C94" t="n">
-        <v>476.699411</v>
+        <v>451.669252</v>
       </c>
       <c r="D94" t="n">
-        <v>3181.839555</v>
+        <v>4557.476727</v>
       </c>
       <c r="E94" t="n">
-        <v>18.6858275506986</v>
+        <v>18.3912053381635</v>
+      </c>
+      <c r="F94" t="n">
+        <v>454.6273380000002</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>22.1858574912254</v>
+        <v>26.1769448311005</v>
       </c>
       <c r="C95" t="n">
-        <v>475.65682</v>
+        <v>490.642376</v>
       </c>
       <c r="D95" t="n">
-        <v>3651.106583</v>
+        <v>5046.8877</v>
       </c>
       <c r="E95" t="n">
-        <v>19.320709448789</v>
+        <v>18.9881973860218</v>
+      </c>
+      <c r="F95" t="n">
+        <v>489.410973</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>454.2</v>
+        <v>206.9</v>
       </c>
       <c r="D96" t="n">
-        <v>4449.2</v>
+        <v>596.7</v>
       </c>
       <c r="E96" t="n">
-        <v>23.1</v>
+        <v>34.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>596.7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>21.5</v>
+        <v>15.1</v>
       </c>
       <c r="C97" t="n">
-        <v>523.2</v>
+        <v>364.4</v>
       </c>
       <c r="D97" t="n">
-        <v>5152.5</v>
+        <v>938.7</v>
       </c>
       <c r="E97" t="n">
-        <v>24.3</v>
+        <v>18.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20.7</v>
+        <v>34.6</v>
       </c>
       <c r="C98" t="n">
-        <v>550.7</v>
+        <v>476.8</v>
       </c>
       <c r="D98" t="n">
-        <v>5526.2</v>
+        <v>1419.2</v>
       </c>
       <c r="E98" t="n">
-        <v>22.9</v>
+        <v>23.9</v>
+      </c>
+      <c r="F98" t="n">
+        <v>480.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C99" t="n">
-        <v>206.9</v>
+        <v>479.8</v>
       </c>
       <c r="D99" t="n">
-        <v>596.7</v>
+        <v>1928.8</v>
       </c>
       <c r="E99" t="n">
-        <v>34.2</v>
+        <v>28</v>
+      </c>
+      <c r="F99" t="n">
+        <v>509.5999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>15.1</v>
+        <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>364.4</v>
+        <v>500.2</v>
       </c>
       <c r="D100" t="n">
-        <v>938.7</v>
+        <v>2449.8</v>
       </c>
       <c r="E100" t="n">
-        <v>18.5</v>
+        <v>27.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>521.0000000000002</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>34.6</v>
+        <v>21.5</v>
       </c>
       <c r="C101" t="n">
-        <v>476.8</v>
+        <v>523.3</v>
       </c>
       <c r="D101" t="n">
-        <v>1419.2</v>
+        <v>2970.1</v>
       </c>
       <c r="E101" t="n">
-        <v>23.9</v>
+        <v>27</v>
+      </c>
+      <c r="F101" t="n">
+        <v>520.2999999999997</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>25</v>
+        <v>19.6</v>
       </c>
       <c r="C102" t="n">
-        <v>479.8</v>
+        <v>514.3</v>
       </c>
       <c r="D102" t="n">
-        <v>1928.8</v>
+        <v>3483.4</v>
       </c>
       <c r="E102" t="n">
-        <v>28</v>
+        <v>25.9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>513.3000000000002</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>30</v>
+        <v>15.7</v>
       </c>
       <c r="C103" t="n">
-        <v>500.2</v>
+        <v>508</v>
       </c>
       <c r="D103" t="n">
-        <v>2449.8</v>
+        <v>3991.4</v>
       </c>
       <c r="E103" t="n">
-        <v>27.5</v>
+        <v>24.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>508</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>21.5</v>
+        <v>9.6</v>
       </c>
       <c r="C104" t="n">
-        <v>523.3</v>
+        <v>454.2</v>
       </c>
       <c r="D104" t="n">
-        <v>2970.1</v>
+        <v>4449.2</v>
       </c>
       <c r="E104" t="n">
-        <v>27</v>
+        <v>23.1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>457.7999999999997</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>19.6</v>
+        <v>21.5</v>
       </c>
       <c r="C105" t="n">
-        <v>514.3</v>
+        <v>523.2</v>
       </c>
       <c r="D105" t="n">
-        <v>3483.4</v>
+        <v>5152.5</v>
       </c>
       <c r="E105" t="n">
-        <v>25.9</v>
+        <v>24.3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>703.3000000000002</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>15.7</v>
+        <v>20.7</v>
       </c>
       <c r="C106" t="n">
-        <v>508</v>
+        <v>550.7</v>
       </c>
       <c r="D106" t="n">
-        <v>3991.4</v>
+        <v>5526.2</v>
       </c>
       <c r="E106" t="n">
-        <v>24.8</v>
+        <v>22.9</v>
+      </c>
+      <c r="F106" t="n">
+        <v>373.6999999999998</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="C107" t="n">
-        <v>852</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>6860.2</v>
+        <v>699.6</v>
       </c>
       <c r="E107" t="n">
-        <v>27.2</v>
+        <v>22.6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>699.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>56.8</v>
+        <v>34.6</v>
       </c>
       <c r="C108" t="n">
-        <v>928.7</v>
+        <v>489.8</v>
       </c>
       <c r="D108" t="n">
-        <v>7771.1</v>
+        <v>1194.6</v>
       </c>
       <c r="E108" t="n">
-        <v>29.7</v>
+        <v>27.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>494.9999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>55.4</v>
+        <v>16.3</v>
       </c>
       <c r="C109" t="n">
-        <v>997.8</v>
+        <v>556.1</v>
       </c>
       <c r="D109" t="n">
-        <v>9301.1</v>
+        <v>1773.1</v>
       </c>
       <c r="E109" t="n">
-        <v>38.7</v>
+        <v>22.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>578.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>16</v>
+      </c>
+      <c r="C110" t="n">
+        <v>692.6</v>
+      </c>
       <c r="D110" t="n">
-        <v>699.6</v>
+        <v>2891.9</v>
       </c>
       <c r="E110" t="n">
-        <v>22.6</v>
+        <v>16.2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1118.8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>34.6</v>
+        <v>21.4</v>
       </c>
       <c r="C111" t="n">
-        <v>489.8</v>
+        <v>720.5</v>
       </c>
       <c r="D111" t="n">
-        <v>1194.6</v>
+        <v>3613</v>
       </c>
       <c r="E111" t="n">
-        <v>27.2</v>
+        <v>17.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>721.0999999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>16.3</v>
+        <v>21.9</v>
       </c>
       <c r="C112" t="n">
-        <v>556.1</v>
+        <v>731.9</v>
       </c>
       <c r="D112" t="n">
-        <v>1773.1</v>
+        <v>4371.7</v>
       </c>
       <c r="E112" t="n">
-        <v>22.4</v>
+        <v>18.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>758.6999999999998</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>16</v>
+        <v>35.6</v>
       </c>
       <c r="C113" t="n">
-        <v>692.6</v>
+        <v>786</v>
       </c>
       <c r="D113" t="n">
-        <v>2891.9</v>
+        <v>5182.9</v>
       </c>
       <c r="E113" t="n">
-        <v>16.2</v>
+        <v>20.4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>811.1999999999998</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>21.4</v>
+        <v>42.6</v>
       </c>
       <c r="C114" t="n">
-        <v>720.5</v>
+        <v>813.7</v>
       </c>
       <c r="D114" t="n">
-        <v>3613</v>
+        <v>6005.5</v>
       </c>
       <c r="E114" t="n">
-        <v>17.1</v>
+        <v>24</v>
+      </c>
+      <c r="F114" t="n">
+        <v>822.6000000000004</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>21.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>731.9</v>
+        <v>852</v>
       </c>
       <c r="D115" t="n">
-        <v>4371.7</v>
+        <v>6860.2</v>
       </c>
       <c r="E115" t="n">
-        <v>18.4</v>
+        <v>27.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>854.6999999999998</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>35.6</v>
+        <v>56.8</v>
       </c>
       <c r="C116" t="n">
-        <v>786</v>
+        <v>928.7</v>
       </c>
       <c r="D116" t="n">
-        <v>5182.9</v>
+        <v>7771.1</v>
       </c>
       <c r="E116" t="n">
-        <v>20.4</v>
+        <v>29.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>910.9000000000005</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>42.6</v>
+        <v>55.4</v>
       </c>
       <c r="C117" t="n">
-        <v>813.7</v>
+        <v>997.8</v>
       </c>
       <c r="D117" t="n">
-        <v>6005.5</v>
+        <v>9301.1</v>
       </c>
       <c r="E117" t="n">
-        <v>24</v>
+        <v>38.7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1530</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C118" t="n">
-        <v>975.9</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>9521.799999999999</v>
+        <v>1450.1</v>
       </c>
       <c r="E118" t="n">
-        <v>25.6</v>
+        <v>54.4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1450.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-2.8</v>
+        <v>54.7</v>
       </c>
       <c r="C119" t="n">
-        <v>982.4</v>
+        <v>981.6</v>
       </c>
       <c r="D119" t="n">
-        <v>10481.3</v>
+        <v>2453.9</v>
       </c>
       <c r="E119" t="n">
-        <v>22.4</v>
+        <v>51.6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1003.8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>8</v>
+        <v>41.6</v>
       </c>
       <c r="C120" t="n">
-        <v>1130.5</v>
+        <v>982.9</v>
       </c>
       <c r="D120" t="n">
-        <v>11770.7</v>
+        <v>3375.8</v>
       </c>
       <c r="E120" t="n">
-        <v>16.9</v>
+        <v>49.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>921.9000000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>980.9</v>
+      </c>
       <c r="D121" t="n">
-        <v>1450.1</v>
+        <v>4380.9</v>
       </c>
       <c r="E121" t="n">
-        <v>54.4</v>
+        <v>47.7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1005.099999999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>54.7</v>
+        <v>40.5</v>
       </c>
       <c r="C122" t="n">
-        <v>981.6</v>
+        <v>1072.6</v>
       </c>
       <c r="D122" t="n">
-        <v>2453.9</v>
+        <v>5386</v>
       </c>
       <c r="E122" t="n">
-        <v>51.6</v>
+        <v>40.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1005.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>41.6</v>
+        <v>29.6</v>
       </c>
       <c r="C123" t="n">
-        <v>982.9</v>
+        <v>1072.3</v>
       </c>
       <c r="D123" t="n">
-        <v>3375.8</v>
+        <v>6718.1</v>
       </c>
       <c r="E123" t="n">
-        <v>49.8</v>
+        <v>38.6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1332.1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>36.2</v>
+        <v>14.7</v>
       </c>
       <c r="C124" t="n">
-        <v>980.9</v>
+        <v>1012.4</v>
       </c>
       <c r="D124" t="n">
-        <v>4380.9</v>
+        <v>7547.6</v>
       </c>
       <c r="E124" t="n">
-        <v>47.7</v>
+        <v>31.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>829.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>40.5</v>
+        <v>12.7</v>
       </c>
       <c r="C125" t="n">
-        <v>1072.6</v>
+        <v>1017.9</v>
       </c>
       <c r="D125" t="n">
-        <v>5386</v>
+        <v>8592.5</v>
       </c>
       <c r="E125" t="n">
-        <v>40.5</v>
+        <v>28.9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1044.9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>29.6</v>
+        <v>5.6</v>
       </c>
       <c r="C126" t="n">
-        <v>1072.3</v>
+        <v>975.9</v>
       </c>
       <c r="D126" t="n">
-        <v>6718.1</v>
+        <v>9521.799999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>38.6</v>
+        <v>25.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>929.2999999999993</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>14.7</v>
+        <v>-2.8</v>
       </c>
       <c r="C127" t="n">
-        <v>1012.4</v>
+        <v>982.4</v>
       </c>
       <c r="D127" t="n">
-        <v>7547.6</v>
+        <v>10481.3</v>
       </c>
       <c r="E127" t="n">
-        <v>31.6</v>
+        <v>22.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>959.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>12.7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="n">
-        <v>1017.9</v>
+        <v>1130.5</v>
       </c>
       <c r="D128" t="n">
-        <v>8592.5</v>
+        <v>11770.7</v>
       </c>
       <c r="E128" t="n">
-        <v>28.9</v>
+        <v>16.9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1289.400000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1035.8</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>9716</v>
+        <v>1714</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7</v>
+        <v>16.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1714</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="C130" t="n">
-        <v>1534.2</v>
+        <v>1025.8</v>
       </c>
       <c r="D130" t="n">
-        <v>15452.3</v>
+        <v>2491.2</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.5</v>
+        <v>3.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>777.1999999999998</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6.9</v>
+        <v>-4.6</v>
       </c>
       <c r="C131" t="n">
-        <v>1642.3</v>
+        <v>972.8</v>
       </c>
       <c r="D131" t="n">
-        <v>17060</v>
+        <v>3469.8</v>
       </c>
       <c r="E131" t="n">
-        <v>-1.1</v>
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>978.6000000000004</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1047.7</v>
+      </c>
       <c r="D132" t="n">
-        <v>1714</v>
+        <v>4536.2</v>
       </c>
       <c r="E132" t="n">
-        <v>16.6</v>
+        <v>2.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1066.4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6.3</v>
+        <v>-6.8</v>
       </c>
       <c r="C133" t="n">
+        <v>1046.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5562</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F133" t="n">
         <v>1025.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2491.2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-4.6</v>
+        <v>-0.7</v>
       </c>
       <c r="C134" t="n">
-        <v>972.8</v>
+        <v>1047.7</v>
       </c>
       <c r="D134" t="n">
-        <v>3469.8</v>
+        <v>6628</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1066</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="C135" t="n">
-        <v>1047.7</v>
+        <v>1052.9</v>
       </c>
       <c r="D135" t="n">
-        <v>4536.2</v>
+        <v>7697.6</v>
       </c>
       <c r="E135" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1069.6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-6.8</v>
+        <v>0.8</v>
       </c>
       <c r="C136" t="n">
-        <v>1046.1</v>
+        <v>1023.1</v>
       </c>
       <c r="D136" t="n">
-        <v>5562</v>
+        <v>8716</v>
       </c>
       <c r="E136" t="n">
         <v>0.4</v>
       </c>
+      <c r="F136" t="n">
+        <v>1018.4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.7</v>
+        <v>6.5</v>
       </c>
       <c r="C137" t="n">
-        <v>1047.7</v>
+        <v>1035.8</v>
       </c>
       <c r="D137" t="n">
-        <v>6628</v>
+        <v>9716</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="C138" t="n">
-        <v>1052.9</v>
+        <v>1534.2</v>
       </c>
       <c r="D138" t="n">
-        <v>7697.6</v>
+        <v>15452.3</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4</v>
+        <v>-1.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5736.299999999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.8</v>
+        <v>6.9</v>
       </c>
       <c r="C139" t="n">
-        <v>1023.1</v>
+        <v>1642.3</v>
       </c>
       <c r="D139" t="n">
-        <v>8716</v>
+        <v>17060</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4</v>
+        <v>-1.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1607.700000000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>-21.6</v>
-      </c>
-      <c r="C140" t="n">
-        <v>839.8</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>8966</v>
+        <v>1586.4</v>
       </c>
       <c r="E140" t="n">
-        <v>-11.8</v>
+        <v>-3.3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1586.4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-21.5</v>
+        <v>-3.8</v>
       </c>
       <c r="C141" t="n">
-        <v>879.5</v>
+        <v>1001.9</v>
       </c>
       <c r="D141" t="n">
-        <v>9824</v>
+        <v>2592.6</v>
       </c>
       <c r="E141" t="n">
-        <v>-12.4</v>
+        <v>0.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1006.2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-13.9</v>
+        <v>-5.9</v>
       </c>
       <c r="C142" t="n">
-        <v>1048.2</v>
+        <v>934.3</v>
       </c>
       <c r="D142" t="n">
-        <v>10899.2</v>
+        <v>3392.6</v>
       </c>
       <c r="E142" t="n">
-        <v>-12.4</v>
+        <v>-2.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>965.5</v>
+      </c>
       <c r="D143" t="n">
-        <v>1586.4</v>
+        <v>4611.6</v>
       </c>
       <c r="E143" t="n">
-        <v>-3.3</v>
+        <v>-7.6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1219</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-3.8</v>
+        <v>-20.1</v>
       </c>
       <c r="C144" t="n">
-        <v>1001.9</v>
+        <v>857.3</v>
       </c>
       <c r="D144" t="n">
-        <v>2592.6</v>
+        <v>5095</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7</v>
+        <v>-7.6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>483.3999999999996</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-5.9</v>
+        <v>-20.6</v>
       </c>
       <c r="C145" t="n">
-        <v>934.3</v>
+        <v>873.2</v>
       </c>
       <c r="D145" t="n">
-        <v>3392.6</v>
+        <v>6348</v>
       </c>
       <c r="E145" t="n">
-        <v>-2.4</v>
+        <v>-9.6</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1253</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-14.7</v>
+        <v>-20.2</v>
       </c>
       <c r="C146" t="n">
-        <v>965.5</v>
+        <v>862.3</v>
       </c>
       <c r="D146" t="n">
-        <v>4611.6</v>
+        <v>7338.3</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.6</v>
+        <v>-6.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>990.3000000000002</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-20.1</v>
+        <v>-24.9</v>
       </c>
       <c r="C147" t="n">
-        <v>857.3</v>
+        <v>840.4</v>
       </c>
       <c r="D147" t="n">
-        <v>5095</v>
+        <v>8156.3</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.6</v>
+        <v>-12.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>818</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-20.6</v>
+        <v>-21.6</v>
       </c>
       <c r="C148" t="n">
-        <v>873.2</v>
+        <v>839.8</v>
       </c>
       <c r="D148" t="n">
-        <v>6348</v>
+        <v>8966</v>
       </c>
       <c r="E148" t="n">
-        <v>-9.6</v>
+        <v>-11.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>809.6999999999998</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-20.2</v>
+        <v>-21.5</v>
       </c>
       <c r="C149" t="n">
-        <v>862.3</v>
+        <v>879.5</v>
       </c>
       <c r="D149" t="n">
-        <v>7338.3</v>
+        <v>9824</v>
       </c>
       <c r="E149" t="n">
-        <v>-6.7</v>
+        <v>-12.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>858</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-24.9</v>
+        <v>-13.9</v>
       </c>
       <c r="C150" t="n">
-        <v>840.4</v>
+        <v>1048.2</v>
       </c>
       <c r="D150" t="n">
-        <v>8156.3</v>
+        <v>10899.2</v>
       </c>
       <c r="E150" t="n">
         <v>-12.4</v>
       </c>
+      <c r="F150" t="n">
+        <v>1075.200000000001</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>959.3</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>8048.1</v>
+        <v>976.9</v>
       </c>
       <c r="E151" t="n">
-        <v>-12</v>
+        <v>-38.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>976.9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>18.5</v>
+        <v>-7.9</v>
       </c>
       <c r="C152" t="n">
-        <v>1083</v>
+        <v>925.7</v>
       </c>
       <c r="D152" t="n">
-        <v>8752.200000000001</v>
+        <v>1877.5</v>
       </c>
       <c r="E152" t="n">
-        <v>-11.4</v>
+        <v>-37.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>900.6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.9</v>
+        <v>-16.2</v>
       </c>
       <c r="C153" t="n">
-        <v>1106.9</v>
+        <v>814</v>
       </c>
       <c r="D153" t="n">
-        <v>9722.9</v>
+        <v>2670.1</v>
       </c>
       <c r="E153" t="n">
-        <v>-11.8</v>
+        <v>-24.6</v>
+      </c>
+      <c r="F153" t="n">
+        <v>792.5999999999999</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-25.2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>705.6</v>
+      </c>
       <c r="D154" t="n">
-        <v>976.9</v>
+        <v>3404.5</v>
       </c>
       <c r="E154" t="n">
-        <v>-38.8</v>
+        <v>-24</v>
+      </c>
+      <c r="F154" t="n">
+        <v>734.4000000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-7.9</v>
+        <v>-19.1</v>
       </c>
       <c r="C155" t="n">
-        <v>925.7</v>
+        <v>770.5</v>
       </c>
       <c r="D155" t="n">
-        <v>1877.5</v>
+        <v>4256.1</v>
       </c>
       <c r="E155" t="n">
-        <v>-37.2</v>
+        <v>-24.4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>851.6000000000004</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-16.2</v>
+        <v>-1.9</v>
       </c>
       <c r="C156" t="n">
-        <v>814</v>
+        <v>879.6</v>
       </c>
       <c r="D156" t="n">
-        <v>2670.1</v>
+        <v>5068.5</v>
       </c>
       <c r="E156" t="n">
-        <v>-24.6</v>
+        <v>-21.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>812.3999999999996</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-25.2</v>
+        <v>5.6</v>
       </c>
       <c r="C157" t="n">
-        <v>705.6</v>
+        <v>928.8</v>
       </c>
       <c r="D157" t="n">
-        <v>3404.5</v>
+        <v>5948.7</v>
       </c>
       <c r="E157" t="n">
-        <v>-24</v>
+        <v>-19.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>880.1999999999998</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-19.1</v>
+        <v>10.8</v>
       </c>
       <c r="C158" t="n">
-        <v>770.5</v>
+        <v>939.5</v>
       </c>
       <c r="D158" t="n">
-        <v>4256.1</v>
+        <v>7043.1</v>
       </c>
       <c r="E158" t="n">
-        <v>-24.4</v>
+        <v>-12.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1094.400000000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-1.9</v>
+        <v>10.7</v>
       </c>
       <c r="C159" t="n">
-        <v>879.6</v>
+        <v>959.3</v>
       </c>
       <c r="D159" t="n">
-        <v>5068.5</v>
+        <v>8048.1</v>
       </c>
       <c r="E159" t="n">
-        <v>-21.8</v>
+        <v>-12</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1005</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>5.6</v>
+        <v>18.5</v>
       </c>
       <c r="C160" t="n">
-        <v>928.8</v>
+        <v>1083</v>
       </c>
       <c r="D160" t="n">
-        <v>5948.7</v>
+        <v>8752.200000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>-19.6</v>
+        <v>-11.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>704.1000000000004</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>10.8</v>
+        <v>-0.9</v>
       </c>
       <c r="C161" t="n">
-        <v>939.5</v>
+        <v>1106.9</v>
       </c>
       <c r="D161" t="n">
-        <v>7043.1</v>
+        <v>9722.9</v>
       </c>
       <c r="E161" t="n">
-        <v>-12.8</v>
+        <v>-11.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>970.6999999999989</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="C162" t="n">
-        <v>994.5</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>10106.1</v>
+        <v>1623.2</v>
       </c>
       <c r="E162" t="n">
-        <v>29.7</v>
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1623.2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-2.1</v>
+        <v>27.3</v>
       </c>
       <c r="C163" t="n">
-        <v>1084.5</v>
+        <v>1084.1</v>
       </c>
       <c r="D163" t="n">
-        <v>11222.3</v>
+        <v>2743.6</v>
       </c>
       <c r="E163" t="n">
-        <v>25.9</v>
+        <v>53.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1120.4</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2.7</v>
+        <v>26</v>
       </c>
       <c r="C164" t="n">
-        <v>1178.9</v>
+        <v>1018.4</v>
       </c>
       <c r="D164" t="n">
-        <v>12314.1</v>
+        <v>3696.1</v>
       </c>
       <c r="E164" t="n">
-        <v>24.1</v>
+        <v>43.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>952.5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1079.4</v>
+      </c>
       <c r="D165" t="n">
-        <v>1623.2</v>
+        <v>4755.7</v>
       </c>
       <c r="E165" t="n">
-        <v>74.59999999999999</v>
+        <v>43.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1059.6</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>27.3</v>
+        <v>44.2</v>
       </c>
       <c r="C166" t="n">
-        <v>1084.1</v>
+        <v>1132.5</v>
       </c>
       <c r="D166" t="n">
-        <v>2743.6</v>
+        <v>5961.1</v>
       </c>
       <c r="E166" t="n">
-        <v>53.5</v>
+        <v>41.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1205.400000000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="C167" t="n">
-        <v>1018.4</v>
+        <v>1051.8</v>
       </c>
       <c r="D167" t="n">
-        <v>3696.1</v>
+        <v>7055.5</v>
       </c>
       <c r="E167" t="n">
-        <v>43.2</v>
+        <v>42.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1094.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>50.8</v>
+        <v>7.9</v>
       </c>
       <c r="C168" t="n">
-        <v>1079.4</v>
+        <v>967</v>
       </c>
       <c r="D168" t="n">
-        <v>4755.7</v>
+        <v>8012.5</v>
       </c>
       <c r="E168" t="n">
-        <v>43.8</v>
+        <v>36.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>957</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>44.2</v>
+        <v>11.2</v>
       </c>
       <c r="C169" t="n">
-        <v>1132.5</v>
+        <v>1015.7</v>
       </c>
       <c r="D169" t="n">
-        <v>5961.1</v>
+        <v>9073.4</v>
       </c>
       <c r="E169" t="n">
-        <v>41.7</v>
+        <v>33.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1060.9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>26.7</v>
+        <v>5.3</v>
       </c>
       <c r="C170" t="n">
-        <v>1051.8</v>
+        <v>994.5</v>
       </c>
       <c r="D170" t="n">
-        <v>7055.5</v>
+        <v>10106.1</v>
       </c>
       <c r="E170" t="n">
-        <v>42.1</v>
+        <v>29.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1032.700000000001</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>7.9</v>
+        <v>-2.1</v>
       </c>
       <c r="C171" t="n">
-        <v>967</v>
+        <v>1084.5</v>
       </c>
       <c r="D171" t="n">
-        <v>8012.5</v>
+        <v>11222.3</v>
       </c>
       <c r="E171" t="n">
-        <v>36.2</v>
+        <v>25.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1116.199999999999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>11.2</v>
+        <v>2.7</v>
       </c>
       <c r="C172" t="n">
-        <v>1015.7</v>
+        <v>1178.9</v>
       </c>
       <c r="D172" t="n">
-        <v>9073.4</v>
+        <v>12314.1</v>
       </c>
       <c r="E172" t="n">
-        <v>33.5</v>
+        <v>24.1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1091.800000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业主要产品产量/光电子器件.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/光电子器件.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3736 +454,2834 @@
           <t>光电子器件产量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>光电子器件产量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007-01</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.1028715517145</v>
+        <v>38.9544698871931</v>
       </c>
       <c r="C2" t="n">
-        <v>14.241413</v>
+        <v>102.848332</v>
       </c>
       <c r="D2" t="n">
-        <v>14.241413</v>
+        <v>972.6271829999999</v>
       </c>
       <c r="E2" t="n">
-        <v>44.1028715517145</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14.241413</v>
+        <v>54.7458716932923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-19.5</v>
+        <v>24.1</v>
       </c>
       <c r="C3" t="n">
-        <v>11.25</v>
+        <v>96.2</v>
       </c>
       <c r="D3" t="n">
-        <v>25.49</v>
+        <v>1075.7</v>
       </c>
       <c r="E3" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.248587</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-14.9</v>
+        <v>16.7</v>
       </c>
       <c r="C4" t="n">
-        <v>13.14</v>
+        <v>101.1</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67</v>
+        <v>1170</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13.18</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.4</v>
+        <v>7.55244755244756</v>
       </c>
       <c r="C5" t="n">
-        <v>34.32</v>
+        <v>77.103055</v>
       </c>
       <c r="D5" t="n">
-        <v>72.97</v>
+        <v>77.103055</v>
       </c>
       <c r="E5" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>34.3</v>
+        <v>7.55244755244756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.7</v>
+        <v>183.91855690527</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>183.55446</v>
       </c>
       <c r="D6" t="n">
-        <v>93.45</v>
+        <v>260.657515</v>
       </c>
       <c r="E6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>20.48</v>
+        <v>91.55547215985921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C7" t="n">
-        <v>26.38</v>
+        <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>125.48</v>
+        <v>234.7</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
-      </c>
-      <c r="F7" t="n">
-        <v>32.03</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.9</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
-        <v>26.52</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>152.01</v>
+        <v>327.1</v>
       </c>
       <c r="E8" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>26.52999999999999</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.1</v>
+        <v>59.2431865594041</v>
       </c>
       <c r="C9" t="n">
-        <v>27.17</v>
+        <v>100.986793</v>
       </c>
       <c r="D9" t="n">
-        <v>179.17</v>
+        <v>429.273163</v>
       </c>
       <c r="E9" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>27.16</v>
+        <v>63.2072281544769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.6</v>
+        <v>60.9</v>
       </c>
       <c r="C10" t="n">
-        <v>28.83</v>
+        <v>115.4</v>
       </c>
       <c r="D10" t="n">
-        <v>206.51</v>
+        <v>544.6</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>27.34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.90000000000001</v>
+        <v>42.6</v>
       </c>
       <c r="C11" t="n">
-        <v>29.56</v>
+        <v>110.5</v>
       </c>
       <c r="D11" t="n">
-        <v>236.1</v>
+        <v>652.5</v>
       </c>
       <c r="E11" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>29.59</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-50.8</v>
+        <v>43.9</v>
       </c>
       <c r="C12" t="n">
-        <v>31.62</v>
+        <v>104.2</v>
       </c>
       <c r="D12" t="n">
-        <v>267.72</v>
+        <v>767.4</v>
       </c>
       <c r="E12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>31.62000000000003</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.5</v>
+        <v>37.8</v>
       </c>
       <c r="C13" t="n">
-        <v>34.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>305.53</v>
+        <v>869.6</v>
       </c>
       <c r="E13" t="n">
-        <v>41</v>
-      </c>
-      <c r="F13" t="n">
-        <v>37.80999999999995</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>27.6</v>
+      </c>
       <c r="C14" t="n">
-        <v>140.24</v>
+        <v>141.9</v>
       </c>
       <c r="D14" t="n">
-        <v>140.24</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>140.24</v>
+        <v>1303.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>37.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.699999999999999</v>
+        <v>54.4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.98</v>
+        <v>140.8</v>
       </c>
       <c r="D15" t="n">
-        <v>182.22</v>
+        <v>1445.1</v>
       </c>
       <c r="E15" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>41.97999999999999</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.7</v>
+        <v>51.8</v>
       </c>
       <c r="C16" t="n">
-        <v>34.97</v>
+        <v>146.5</v>
       </c>
       <c r="D16" t="n">
-        <v>190.58</v>
+        <v>1591.6</v>
       </c>
       <c r="E16" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8.360000000000014</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.6</v>
+        <v>15.4208269120121</v>
       </c>
       <c r="C17" t="n">
-        <v>46.33</v>
+        <v>87.045106</v>
       </c>
       <c r="D17" t="n">
-        <v>237.43</v>
+        <v>87.045106</v>
       </c>
       <c r="E17" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>46.84999999999999</v>
+        <v>15.4208269120121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>57.1</v>
+        <v>21.4</v>
       </c>
       <c r="C18" t="n">
-        <v>48.47</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>287.67</v>
+        <v>167.1</v>
       </c>
       <c r="E18" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>50.24000000000001</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.2</v>
+        <v>40.9</v>
       </c>
       <c r="C19" t="n">
-        <v>46.22</v>
+        <v>122.7</v>
       </c>
       <c r="D19" t="n">
-        <v>340.69</v>
+        <v>287.6</v>
       </c>
       <c r="E19" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>53.01999999999998</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37.4</v>
+        <v>28.7</v>
       </c>
       <c r="C20" t="n">
-        <v>49.77</v>
+        <v>121.5</v>
       </c>
       <c r="D20" t="n">
-        <v>399.1</v>
+        <v>411.9</v>
       </c>
       <c r="E20" t="n">
-        <v>88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>58.41000000000003</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.5</v>
+        <v>37.8</v>
       </c>
       <c r="C21" t="n">
-        <v>45.87</v>
+        <v>141.5</v>
       </c>
       <c r="D21" t="n">
-        <v>440.98</v>
+        <v>553.2</v>
       </c>
       <c r="E21" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="F21" t="n">
-        <v>41.88</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.4</v>
+        <v>26.3</v>
       </c>
       <c r="C22" t="n">
-        <v>43.57</v>
+        <v>142.5</v>
       </c>
       <c r="D22" t="n">
-        <v>476.82</v>
+        <v>701.9</v>
       </c>
       <c r="E22" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>35.83999999999997</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-3.6</v>
+        <v>51.1</v>
       </c>
       <c r="C23" t="n">
-        <v>40.74</v>
+        <v>151.3</v>
       </c>
       <c r="D23" t="n">
-        <v>517.41</v>
+        <v>857</v>
       </c>
       <c r="E23" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>40.58999999999997</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>39.84</v>
+        <v>158.5</v>
       </c>
       <c r="D24" t="n">
-        <v>557.87</v>
+        <v>1009.6</v>
       </c>
       <c r="E24" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>40.46000000000004</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-28.4</v>
+        <v>36.1</v>
       </c>
       <c r="C25" t="n">
-        <v>30.12</v>
+        <v>150.3</v>
       </c>
       <c r="D25" t="n">
-        <v>587.95</v>
+        <v>1162.6</v>
       </c>
       <c r="E25" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F25" t="n">
-        <v>30.08000000000004</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-14.0613082656396</v>
+        <v>16.3</v>
       </c>
       <c r="C26" t="n">
-        <v>33.270807</v>
+        <v>215.7</v>
       </c>
       <c r="D26" t="n">
-        <v>33.270807</v>
+        <v>2079</v>
       </c>
       <c r="E26" t="n">
-        <v>-14.0613082656396</v>
-      </c>
-      <c r="F26" t="n">
-        <v>33.270807</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
       <c r="C27" t="n">
-        <v>33.39</v>
+        <v>228.9</v>
       </c>
       <c r="D27" t="n">
-        <v>66.68000000000001</v>
+        <v>2303.4</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>33.40919300000001</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-6.7</v>
+        <v>23.5</v>
       </c>
       <c r="C28" t="n">
-        <v>53.54</v>
+        <v>251.4</v>
       </c>
       <c r="D28" t="n">
-        <v>146.87</v>
+        <v>2550.1</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>80.19</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-28.8</v>
+        <v>28.5057471264368</v>
       </c>
       <c r="C29" t="n">
-        <v>64.31999999999999</v>
+        <v>111.8</v>
       </c>
       <c r="D29" t="n">
-        <v>233.63</v>
+        <v>111.8</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.6</v>
-      </c>
-      <c r="F29" t="n">
-        <v>86.75999999999999</v>
+        <v>28.5057471264368</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-21</v>
+        <v>26.8</v>
       </c>
       <c r="C30" t="n">
-        <v>66.25</v>
+        <v>156.3</v>
       </c>
       <c r="D30" t="n">
-        <v>301.37</v>
+        <v>268.1</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>67.74000000000001</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-26.3438086575844</v>
+        <v>32.2</v>
       </c>
       <c r="C31" t="n">
-        <v>63.656808</v>
+        <v>196.2</v>
       </c>
       <c r="D31" t="n">
-        <v>330.697753</v>
+        <v>470.3</v>
       </c>
       <c r="E31" t="n">
-        <v>-14.2651264060803</v>
-      </c>
-      <c r="F31" t="n">
-        <v>29.32775299999997</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-9.44857942657622</v>
+        <v>36.3</v>
       </c>
       <c r="C32" t="n">
-        <v>70.287696</v>
+        <v>234.1</v>
       </c>
       <c r="D32" t="n">
-        <v>595.210554</v>
+        <v>704.1</v>
       </c>
       <c r="E32" t="n">
-        <v>31.8951174795705</v>
-      </c>
-      <c r="F32" t="n">
-        <v>264.512801</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-12.6</v>
+        <v>21.3</v>
       </c>
       <c r="C33" t="n">
-        <v>63.1</v>
+        <v>240.6</v>
       </c>
       <c r="D33" t="n">
-        <v>660.3099999999999</v>
+        <v>929.8</v>
       </c>
       <c r="E33" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>65.09944599999994</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-10.0635388296245</v>
+        <v>-11.1</v>
       </c>
       <c r="C34" t="n">
-        <v>68.672155</v>
+        <v>435.9</v>
       </c>
       <c r="D34" t="n">
-        <v>736.343896</v>
+        <v>2332.9</v>
       </c>
       <c r="E34" t="n">
-        <v>21.1670989384897</v>
-      </c>
-      <c r="F34" t="n">
-        <v>76.03389600000003</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-12.7</v>
+        <v>-0.7</v>
       </c>
       <c r="C35" t="n">
-        <v>67.47</v>
+        <v>503.5</v>
       </c>
       <c r="D35" t="n">
-        <v>801.51</v>
+        <v>2974.3</v>
       </c>
       <c r="E35" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>65.16610400000002</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>70.88</v>
+        <v>586</v>
       </c>
       <c r="D36" t="n">
-        <v>872.34</v>
+        <v>3536.5</v>
       </c>
       <c r="E36" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F36" t="n">
-        <v>70.83000000000004</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.3</v>
+        <v>23.2</v>
       </c>
       <c r="C37" t="n">
-        <v>78.95</v>
+        <v>236.7</v>
       </c>
       <c r="D37" t="n">
-        <v>936.13</v>
+        <v>1867</v>
       </c>
       <c r="E37" t="n">
-        <v>16</v>
-      </c>
-      <c r="F37" t="n">
-        <v>63.78999999999996</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.55244755244756</v>
+        <v>35.9148898988962</v>
       </c>
       <c r="C38" t="n">
-        <v>77.103055</v>
+        <v>315.988026</v>
       </c>
       <c r="D38" t="n">
-        <v>77.103055</v>
+        <v>2725.171716</v>
       </c>
       <c r="E38" t="n">
-        <v>7.55244755244756</v>
-      </c>
-      <c r="F38" t="n">
-        <v>77.103055</v>
+        <v>27.7127049022812</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>183.91855690527</v>
+        <v>31.0864998983588</v>
       </c>
       <c r="C39" t="n">
-        <v>183.55446</v>
+        <v>312.545499</v>
       </c>
       <c r="D39" t="n">
-        <v>260.657515</v>
+        <v>3046.221538</v>
       </c>
       <c r="E39" t="n">
-        <v>91.55547215985921</v>
-      </c>
-      <c r="F39" t="n">
-        <v>183.55446</v>
+        <v>29.1957371613599</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>78</v>
+        <v>22.961821861015</v>
       </c>
       <c r="C40" t="n">
-        <v>94</v>
+        <v>304.279673</v>
       </c>
       <c r="D40" t="n">
-        <v>234.7</v>
+        <v>3354.141943</v>
       </c>
       <c r="E40" t="n">
-        <v>74</v>
-      </c>
-      <c r="F40" t="n">
-        <v>234.7</v>
+        <v>28.7810369917312</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>48</v>
-      </c>
-      <c r="C41" t="n">
-        <v>91.90000000000001</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>327.1</v>
+        <v>435.2</v>
       </c>
       <c r="E41" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>92.40000000000003</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>59.2431865594041</v>
+        <v>31.296159001535</v>
       </c>
       <c r="C42" t="n">
-        <v>100.986793</v>
+        <v>240.582447</v>
       </c>
       <c r="D42" t="n">
-        <v>429.273163</v>
+        <v>637.57569</v>
       </c>
       <c r="E42" t="n">
-        <v>63.2072281544769</v>
-      </c>
-      <c r="F42" t="n">
-        <v>102.173163</v>
+        <v>41.7084229403977</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.9</v>
+        <v>21.2779298011161</v>
       </c>
       <c r="C43" t="n">
-        <v>115.4</v>
+        <v>273.365733</v>
       </c>
       <c r="D43" t="n">
-        <v>544.6</v>
+        <v>888.115768</v>
       </c>
       <c r="E43" t="n">
-        <v>64</v>
-      </c>
-      <c r="F43" t="n">
-        <v>115.326837</v>
+        <v>29.0378456385364</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>42.6</v>
+        <v>22.8745025670727</v>
       </c>
       <c r="C44" t="n">
-        <v>110.5</v>
+        <v>298.338453</v>
       </c>
       <c r="D44" t="n">
-        <v>652.5</v>
+        <v>1186.950426</v>
       </c>
       <c r="E44" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="F44" t="n">
-        <v>107.9</v>
+        <v>26.8247569559791</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.9</v>
+        <v>26.4714164759655</v>
       </c>
       <c r="C45" t="n">
-        <v>104.2</v>
+        <v>303.21954</v>
       </c>
       <c r="D45" t="n">
-        <v>767.4</v>
+        <v>1488.143451</v>
       </c>
       <c r="E45" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="F45" t="n">
-        <v>114.9</v>
+        <v>27.0416004129193</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.8</v>
+        <v>25.8593824995669</v>
       </c>
       <c r="C46" t="n">
-        <v>99.90000000000001</v>
+        <v>304.872627</v>
       </c>
       <c r="D46" t="n">
-        <v>869.6</v>
+        <v>1793.961825</v>
       </c>
       <c r="E46" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>102.2</v>
+        <v>24.9679188196141</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>38.9544698871931</v>
+        <v>29.8251027487777</v>
       </c>
       <c r="C47" t="n">
-        <v>102.848332</v>
+        <v>313.452383</v>
       </c>
       <c r="D47" t="n">
-        <v>972.6271829999999</v>
+        <v>2100.699865</v>
       </c>
       <c r="E47" t="n">
-        <v>54.7458716932923</v>
-      </c>
-      <c r="F47" t="n">
-        <v>103.0271829999999</v>
+        <v>27.524950783027</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>24.1</v>
+        <v>25.8198415504679</v>
       </c>
       <c r="C48" t="n">
-        <v>96.2</v>
+        <v>316.519506</v>
       </c>
       <c r="D48" t="n">
-        <v>1075.7</v>
+        <v>2416.155345</v>
       </c>
       <c r="E48" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>103.0728170000001</v>
+        <v>26.5275055148595</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>16.7</v>
+        <v>13.2491199658592</v>
       </c>
       <c r="C49" t="n">
-        <v>101.1</v>
+        <v>449.281723</v>
       </c>
       <c r="D49" t="n">
-        <v>1170</v>
+        <v>4102.849389</v>
       </c>
       <c r="E49" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>94.29999999999995</v>
+        <v>18.8460841284982</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>15.4208269120121</v>
+        <v>13.2610515136124</v>
       </c>
       <c r="C50" t="n">
-        <v>87.045106</v>
+        <v>451.669252</v>
       </c>
       <c r="D50" t="n">
-        <v>87.045106</v>
+        <v>4557.476727</v>
       </c>
       <c r="E50" t="n">
-        <v>15.4208269120121</v>
-      </c>
-      <c r="F50" t="n">
-        <v>87.045106</v>
+        <v>18.3912053381635</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>21.4</v>
+        <v>26.1769448311005</v>
       </c>
       <c r="C51" t="n">
-        <v>80.09999999999999</v>
+        <v>490.642376</v>
       </c>
       <c r="D51" t="n">
-        <v>167.1</v>
+        <v>5046.8877</v>
       </c>
       <c r="E51" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>80.05489399999999</v>
+        <v>18.9881973860218</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="C52" t="n">
-        <v>122.7</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>287.6</v>
+        <v>478.499033999999</v>
       </c>
       <c r="E52" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F52" t="n">
-        <v>120.5</v>
+        <v>17.3524382998075</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>28.7</v>
+        <v>30.2255197347803</v>
       </c>
       <c r="C53" t="n">
-        <v>121.5</v>
+        <v>356.989672</v>
       </c>
       <c r="D53" t="n">
-        <v>411.9</v>
+        <v>921.073001</v>
       </c>
       <c r="E53" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F53" t="n">
-        <v>124.3</v>
+        <v>21.8356897788496</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>37.8</v>
+        <v>18.831345965822</v>
       </c>
       <c r="C54" t="n">
-        <v>141.5</v>
+        <v>382.464726</v>
       </c>
       <c r="D54" t="n">
-        <v>553.2</v>
+        <v>1291.567653</v>
       </c>
       <c r="E54" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F54" t="n">
-        <v>141.3000000000001</v>
+        <v>22.064363060202</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>26.3</v>
+        <v>15.6132881738518</v>
       </c>
       <c r="C55" t="n">
-        <v>142.5</v>
+        <v>483.224717</v>
       </c>
       <c r="D55" t="n">
-        <v>701.9</v>
+        <v>1937.617788</v>
       </c>
       <c r="E55" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>148.6999999999999</v>
+        <v>20.3974619520935</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>51.1</v>
+        <v>8.64785957658642</v>
       </c>
       <c r="C56" t="n">
-        <v>151.3</v>
+        <v>431.907344</v>
       </c>
       <c r="D56" t="n">
-        <v>857</v>
+        <v>2245.224586</v>
       </c>
       <c r="E56" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F56" t="n">
-        <v>155.1</v>
+        <v>17.7277473061582</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>71.40000000000001</v>
+        <v>21.8626743280249</v>
       </c>
       <c r="C57" t="n">
-        <v>158.5</v>
+        <v>480.269715</v>
       </c>
       <c r="D57" t="n">
-        <v>1009.6</v>
+        <v>2716.868495</v>
       </c>
       <c r="E57" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>152.6</v>
+        <v>18.9509907855033</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>36.1</v>
+        <v>20.0629977649416</v>
       </c>
       <c r="C58" t="n">
-        <v>150.3</v>
+        <v>476.699411</v>
       </c>
       <c r="D58" t="n">
-        <v>1162.6</v>
+        <v>3181.839555</v>
       </c>
       <c r="E58" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="F58" t="n">
-        <v>152.9999999999999</v>
+        <v>18.6858275506986</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>27.6</v>
+        <v>22.1858574912254</v>
       </c>
       <c r="C59" t="n">
-        <v>141.9</v>
+        <v>475.65682</v>
       </c>
       <c r="D59" t="n">
-        <v>1303.5</v>
+        <v>3651.106583</v>
       </c>
       <c r="E59" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="F59" t="n">
-        <v>140.9000000000001</v>
+        <v>19.320709448789</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>54.4</v>
+        <v>9.6</v>
       </c>
       <c r="C60" t="n">
-        <v>140.8</v>
+        <v>454.2</v>
       </c>
       <c r="D60" t="n">
-        <v>1445.1</v>
+        <v>4449.2</v>
       </c>
       <c r="E60" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F60" t="n">
-        <v>141.5999999999999</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>51.8</v>
+        <v>21.5</v>
       </c>
       <c r="C61" t="n">
-        <v>146.5</v>
+        <v>523.2</v>
       </c>
       <c r="D61" t="n">
-        <v>1591.6</v>
+        <v>5152.5</v>
       </c>
       <c r="E61" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="F61" t="n">
-        <v>146.5</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>28.5057471264368</v>
+        <v>20.7</v>
       </c>
       <c r="C62" t="n">
-        <v>111.8</v>
+        <v>550.7</v>
       </c>
       <c r="D62" t="n">
-        <v>111.8</v>
+        <v>5526.2</v>
       </c>
       <c r="E62" t="n">
-        <v>28.5057471264368</v>
-      </c>
-      <c r="F62" t="n">
-        <v>111.8</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>156.3</v>
+        <v>206.9</v>
       </c>
       <c r="D63" t="n">
-        <v>268.1</v>
+        <v>596.7</v>
       </c>
       <c r="E63" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F63" t="n">
-        <v>156.3</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>32.2</v>
+        <v>15.1</v>
       </c>
       <c r="C64" t="n">
-        <v>196.2</v>
+        <v>364.4</v>
       </c>
       <c r="D64" t="n">
-        <v>470.3</v>
+        <v>938.7</v>
       </c>
       <c r="E64" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F64" t="n">
-        <v>202.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>36.3</v>
+        <v>34.6</v>
       </c>
       <c r="C65" t="n">
-        <v>234.1</v>
+        <v>476.8</v>
       </c>
       <c r="D65" t="n">
-        <v>704.1</v>
+        <v>1419.2</v>
       </c>
       <c r="E65" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F65" t="n">
-        <v>233.8</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>21.3</v>
+        <v>25</v>
       </c>
       <c r="C66" t="n">
-        <v>240.6</v>
+        <v>479.8</v>
       </c>
       <c r="D66" t="n">
-        <v>929.8</v>
+        <v>1928.8</v>
       </c>
       <c r="E66" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F66" t="n">
-        <v>225.6999999999999</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-11.1</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
-        <v>435.9</v>
+        <v>500.2</v>
       </c>
       <c r="D67" t="n">
-        <v>2332.9</v>
+        <v>2449.8</v>
       </c>
       <c r="E67" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1403.1</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.7</v>
+        <v>21.5</v>
       </c>
       <c r="C68" t="n">
-        <v>503.5</v>
+        <v>523.3</v>
       </c>
       <c r="D68" t="n">
-        <v>2974.3</v>
+        <v>2970.1</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F68" t="n">
-        <v>641.4000000000001</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9</v>
+        <v>19.6</v>
       </c>
       <c r="C69" t="n">
-        <v>586</v>
+        <v>514.3</v>
       </c>
       <c r="D69" t="n">
-        <v>3536.5</v>
+        <v>3483.4</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>562.1999999999998</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>23.2</v>
+        <v>15.7</v>
       </c>
       <c r="C70" t="n">
-        <v>236.7</v>
+        <v>508</v>
       </c>
       <c r="D70" t="n">
-        <v>1867</v>
+        <v>3991.4</v>
       </c>
       <c r="E70" t="n">
-        <v>18</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1867</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>16.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>215.7</v>
+        <v>852</v>
       </c>
       <c r="D71" t="n">
-        <v>2079</v>
+        <v>6860.2</v>
       </c>
       <c r="E71" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F71" t="n">
-        <v>212</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>12.6</v>
+        <v>56.8</v>
       </c>
       <c r="C72" t="n">
-        <v>228.9</v>
+        <v>928.7</v>
       </c>
       <c r="D72" t="n">
-        <v>2303.4</v>
+        <v>7771.1</v>
       </c>
       <c r="E72" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F72" t="n">
-        <v>224.4000000000001</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>23.5</v>
+        <v>55.4</v>
       </c>
       <c r="C73" t="n">
-        <v>251.4</v>
+        <v>997.8</v>
       </c>
       <c r="D73" t="n">
-        <v>2550.1</v>
+        <v>9301.1</v>
       </c>
       <c r="E73" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F73" t="n">
-        <v>246.6999999999998</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>435.2</v>
+        <v>699.6</v>
       </c>
       <c r="E74" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>435.2</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>31.296159001535</v>
+        <v>34.6</v>
       </c>
       <c r="C75" t="n">
-        <v>240.582447</v>
+        <v>489.8</v>
       </c>
       <c r="D75" t="n">
-        <v>637.57569</v>
+        <v>1194.6</v>
       </c>
       <c r="E75" t="n">
-        <v>41.7084229403977</v>
-      </c>
-      <c r="F75" t="n">
-        <v>202.37569</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>21.2779298011161</v>
+        <v>16.3</v>
       </c>
       <c r="C76" t="n">
-        <v>273.365733</v>
+        <v>556.1</v>
       </c>
       <c r="D76" t="n">
-        <v>888.115768</v>
+        <v>1773.1</v>
       </c>
       <c r="E76" t="n">
-        <v>29.0378456385364</v>
-      </c>
-      <c r="F76" t="n">
-        <v>250.540078</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>22.8745025670727</v>
+        <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>298.338453</v>
+        <v>692.6</v>
       </c>
       <c r="D77" t="n">
-        <v>1186.950426</v>
+        <v>2891.9</v>
       </c>
       <c r="E77" t="n">
-        <v>26.8247569559791</v>
-      </c>
-      <c r="F77" t="n">
-        <v>298.8346580000001</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>26.4714164759655</v>
+        <v>21.4</v>
       </c>
       <c r="C78" t="n">
-        <v>303.21954</v>
+        <v>720.5</v>
       </c>
       <c r="D78" t="n">
-        <v>1488.143451</v>
+        <v>3613</v>
       </c>
       <c r="E78" t="n">
-        <v>27.0416004129193</v>
-      </c>
-      <c r="F78" t="n">
-        <v>301.1930249999998</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>25.8593824995669</v>
+        <v>21.9</v>
       </c>
       <c r="C79" t="n">
-        <v>304.872627</v>
+        <v>731.9</v>
       </c>
       <c r="D79" t="n">
-        <v>1793.961825</v>
+        <v>4371.7</v>
       </c>
       <c r="E79" t="n">
-        <v>24.9679188196141</v>
-      </c>
-      <c r="F79" t="n">
-        <v>305.8183740000002</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>29.8251027487777</v>
+        <v>35.6</v>
       </c>
       <c r="C80" t="n">
-        <v>313.452383</v>
+        <v>786</v>
       </c>
       <c r="D80" t="n">
-        <v>2100.699865</v>
+        <v>5182.9</v>
       </c>
       <c r="E80" t="n">
-        <v>27.524950783027</v>
-      </c>
-      <c r="F80" t="n">
-        <v>306.73804</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>25.8198415504679</v>
+        <v>42.6</v>
       </c>
       <c r="C81" t="n">
-        <v>316.519506</v>
+        <v>813.7</v>
       </c>
       <c r="D81" t="n">
-        <v>2416.155345</v>
+        <v>6005.5</v>
       </c>
       <c r="E81" t="n">
-        <v>26.5275055148595</v>
-      </c>
-      <c r="F81" t="n">
-        <v>315.4554800000001</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>35.9148898988962</v>
+        <v>5.6</v>
       </c>
       <c r="C82" t="n">
-        <v>315.988026</v>
+        <v>975.9</v>
       </c>
       <c r="D82" t="n">
-        <v>2725.171716</v>
+        <v>9521.799999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>27.7127049022812</v>
-      </c>
-      <c r="F82" t="n">
-        <v>309.0163709999997</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>31.0864998983588</v>
+        <v>-2.8</v>
       </c>
       <c r="C83" t="n">
-        <v>312.545499</v>
+        <v>982.4</v>
       </c>
       <c r="D83" t="n">
-        <v>3046.221538</v>
+        <v>10481.3</v>
       </c>
       <c r="E83" t="n">
-        <v>29.1957371613599</v>
-      </c>
-      <c r="F83" t="n">
-        <v>321.0498219999999</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>22.961821861015</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>304.279673</v>
+        <v>1130.5</v>
       </c>
       <c r="D84" t="n">
-        <v>3354.141943</v>
+        <v>11770.7</v>
       </c>
       <c r="E84" t="n">
-        <v>28.7810369917312</v>
-      </c>
-      <c r="F84" t="n">
-        <v>307.9204050000003</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>478.499033999999</v>
+        <v>1450.1</v>
       </c>
       <c r="E85" t="n">
-        <v>17.3524382998075</v>
-      </c>
-      <c r="F85" t="n">
-        <v>478.499033999999</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>30.2255197347803</v>
+        <v>54.7</v>
       </c>
       <c r="C86" t="n">
-        <v>356.989672</v>
+        <v>981.6</v>
       </c>
       <c r="D86" t="n">
-        <v>921.073001</v>
+        <v>2453.9</v>
       </c>
       <c r="E86" t="n">
-        <v>21.8356897788496</v>
-      </c>
-      <c r="F86" t="n">
-        <v>442.5739670000009</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>18.831345965822</v>
+        <v>41.6</v>
       </c>
       <c r="C87" t="n">
-        <v>382.464726</v>
+        <v>982.9</v>
       </c>
       <c r="D87" t="n">
-        <v>1291.567653</v>
+        <v>3375.8</v>
       </c>
       <c r="E87" t="n">
-        <v>22.064363060202</v>
-      </c>
-      <c r="F87" t="n">
-        <v>370.4946520000001</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>15.6132881738518</v>
+        <v>36.2</v>
       </c>
       <c r="C88" t="n">
-        <v>483.224717</v>
+        <v>980.9</v>
       </c>
       <c r="D88" t="n">
-        <v>1937.617788</v>
+        <v>4380.9</v>
       </c>
       <c r="E88" t="n">
-        <v>20.3974619520935</v>
-      </c>
-      <c r="F88" t="n">
-        <v>646.050135</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>8.64785957658642</v>
+        <v>40.5</v>
       </c>
       <c r="C89" t="n">
-        <v>431.907344</v>
+        <v>1072.6</v>
       </c>
       <c r="D89" t="n">
-        <v>2245.224586</v>
+        <v>5386</v>
       </c>
       <c r="E89" t="n">
-        <v>17.7277473061582</v>
-      </c>
-      <c r="F89" t="n">
-        <v>307.6067979999998</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>21.8626743280249</v>
+        <v>29.6</v>
       </c>
       <c r="C90" t="n">
-        <v>480.269715</v>
+        <v>1072.3</v>
       </c>
       <c r="D90" t="n">
-        <v>2716.868495</v>
+        <v>6718.1</v>
       </c>
       <c r="E90" t="n">
-        <v>18.9509907855033</v>
-      </c>
-      <c r="F90" t="n">
-        <v>471.6439090000003</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>20.0629977649416</v>
+        <v>14.7</v>
       </c>
       <c r="C91" t="n">
-        <v>476.699411</v>
+        <v>1012.4</v>
       </c>
       <c r="D91" t="n">
-        <v>3181.839555</v>
+        <v>7547.6</v>
       </c>
       <c r="E91" t="n">
-        <v>18.6858275506986</v>
-      </c>
-      <c r="F91" t="n">
-        <v>464.9710599999999</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>22.1858574912254</v>
+        <v>12.7</v>
       </c>
       <c r="C92" t="n">
-        <v>475.65682</v>
+        <v>1017.9</v>
       </c>
       <c r="D92" t="n">
-        <v>3651.106583</v>
+        <v>8592.5</v>
       </c>
       <c r="E92" t="n">
-        <v>19.320709448789</v>
-      </c>
-      <c r="F92" t="n">
-        <v>469.2670279999998</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>13.2491199658592</v>
+        <v>6.5</v>
       </c>
       <c r="C93" t="n">
-        <v>449.281723</v>
+        <v>1035.8</v>
       </c>
       <c r="D93" t="n">
-        <v>4102.849389</v>
+        <v>9716</v>
       </c>
       <c r="E93" t="n">
-        <v>18.8460841284982</v>
-      </c>
-      <c r="F93" t="n">
-        <v>451.7428060000002</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>13.2610515136124</v>
+        <v>4.3</v>
       </c>
       <c r="C94" t="n">
-        <v>451.669252</v>
+        <v>1534.2</v>
       </c>
       <c r="D94" t="n">
-        <v>4557.476727</v>
+        <v>15452.3</v>
       </c>
       <c r="E94" t="n">
-        <v>18.3912053381635</v>
-      </c>
-      <c r="F94" t="n">
-        <v>454.6273380000002</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>26.1769448311005</v>
+        <v>6.9</v>
       </c>
       <c r="C95" t="n">
-        <v>490.642376</v>
+        <v>1642.3</v>
       </c>
       <c r="D95" t="n">
-        <v>5046.8877</v>
+        <v>17060</v>
       </c>
       <c r="E95" t="n">
-        <v>18.9881973860218</v>
-      </c>
-      <c r="F95" t="n">
-        <v>489.410973</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>206.9</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>596.7</v>
+        <v>1714</v>
       </c>
       <c r="E96" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F96" t="n">
-        <v>596.7</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>15.1</v>
+        <v>6.3</v>
       </c>
       <c r="C97" t="n">
-        <v>364.4</v>
+        <v>1025.8</v>
       </c>
       <c r="D97" t="n">
-        <v>938.7</v>
+        <v>2491.2</v>
       </c>
       <c r="E97" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F97" t="n">
-        <v>342</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>34.6</v>
+        <v>-4.6</v>
       </c>
       <c r="C98" t="n">
-        <v>476.8</v>
+        <v>972.8</v>
       </c>
       <c r="D98" t="n">
-        <v>1419.2</v>
+        <v>3469.8</v>
       </c>
       <c r="E98" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F98" t="n">
-        <v>480.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>25</v>
+        <v>5.9</v>
       </c>
       <c r="C99" t="n">
-        <v>479.8</v>
+        <v>1047.7</v>
       </c>
       <c r="D99" t="n">
-        <v>1928.8</v>
+        <v>4536.2</v>
       </c>
       <c r="E99" t="n">
-        <v>28</v>
-      </c>
-      <c r="F99" t="n">
-        <v>509.5999999999999</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>30</v>
+        <v>-6.8</v>
       </c>
       <c r="C100" t="n">
-        <v>500.2</v>
+        <v>1046.1</v>
       </c>
       <c r="D100" t="n">
-        <v>2449.8</v>
+        <v>5562</v>
       </c>
       <c r="E100" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F100" t="n">
-        <v>521.0000000000002</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>21.5</v>
+        <v>-0.7</v>
       </c>
       <c r="C101" t="n">
-        <v>523.3</v>
+        <v>1047.7</v>
       </c>
       <c r="D101" t="n">
-        <v>2970.1</v>
+        <v>6628</v>
       </c>
       <c r="E101" t="n">
-        <v>27</v>
-      </c>
-      <c r="F101" t="n">
-        <v>520.2999999999997</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>19.6</v>
+        <v>2.5</v>
       </c>
       <c r="C102" t="n">
-        <v>514.3</v>
+        <v>1052.9</v>
       </c>
       <c r="D102" t="n">
-        <v>3483.4</v>
+        <v>7697.6</v>
       </c>
       <c r="E102" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F102" t="n">
-        <v>513.3000000000002</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>15.7</v>
+        <v>0.8</v>
       </c>
       <c r="C103" t="n">
-        <v>508</v>
+        <v>1023.1</v>
       </c>
       <c r="D103" t="n">
-        <v>3991.4</v>
+        <v>8716</v>
       </c>
       <c r="E103" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F103" t="n">
-        <v>508</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9.6</v>
+        <v>-21.6</v>
       </c>
       <c r="C104" t="n">
-        <v>454.2</v>
+        <v>839.8</v>
       </c>
       <c r="D104" t="n">
-        <v>4449.2</v>
+        <v>8966</v>
       </c>
       <c r="E104" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>457.7999999999997</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>21.5</v>
+        <v>-21.5</v>
       </c>
       <c r="C105" t="n">
-        <v>523.2</v>
+        <v>879.5</v>
       </c>
       <c r="D105" t="n">
-        <v>5152.5</v>
+        <v>9824</v>
       </c>
       <c r="E105" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F105" t="n">
-        <v>703.3000000000002</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>20.7</v>
+        <v>-13.9</v>
       </c>
       <c r="C106" t="n">
-        <v>550.7</v>
+        <v>1048.2</v>
       </c>
       <c r="D106" t="n">
-        <v>5526.2</v>
+        <v>10899.2</v>
       </c>
       <c r="E106" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F106" t="n">
-        <v>373.6999999999998</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>699.6</v>
+        <v>1586.4</v>
       </c>
       <c r="E107" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F107" t="n">
-        <v>699.6</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>34.6</v>
+        <v>-3.8</v>
       </c>
       <c r="C108" t="n">
-        <v>489.8</v>
+        <v>1001.9</v>
       </c>
       <c r="D108" t="n">
-        <v>1194.6</v>
+        <v>2592.6</v>
       </c>
       <c r="E108" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F108" t="n">
-        <v>494.9999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>16.3</v>
+        <v>-5.9</v>
       </c>
       <c r="C109" t="n">
-        <v>556.1</v>
+        <v>934.3</v>
       </c>
       <c r="D109" t="n">
-        <v>1773.1</v>
+        <v>3392.6</v>
       </c>
       <c r="E109" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F109" t="n">
-        <v>578.5</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>16</v>
+        <v>-14.7</v>
       </c>
       <c r="C110" t="n">
-        <v>692.6</v>
+        <v>965.5</v>
       </c>
       <c r="D110" t="n">
-        <v>2891.9</v>
+        <v>4611.6</v>
       </c>
       <c r="E110" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1118.8</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>21.4</v>
+        <v>-20.1</v>
       </c>
       <c r="C111" t="n">
-        <v>720.5</v>
+        <v>857.3</v>
       </c>
       <c r="D111" t="n">
-        <v>3613</v>
+        <v>5095</v>
       </c>
       <c r="E111" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>721.0999999999999</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>21.9</v>
+        <v>-20.6</v>
       </c>
       <c r="C112" t="n">
-        <v>731.9</v>
+        <v>873.2</v>
       </c>
       <c r="D112" t="n">
-        <v>4371.7</v>
+        <v>6348</v>
       </c>
       <c r="E112" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F112" t="n">
-        <v>758.6999999999998</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>35.6</v>
+        <v>-20.2</v>
       </c>
       <c r="C113" t="n">
-        <v>786</v>
+        <v>862.3</v>
       </c>
       <c r="D113" t="n">
-        <v>5182.9</v>
+        <v>7338.3</v>
       </c>
       <c r="E113" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F113" t="n">
-        <v>811.1999999999998</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>42.6</v>
+        <v>-24.9</v>
       </c>
       <c r="C114" t="n">
-        <v>813.7</v>
+        <v>840.4</v>
       </c>
       <c r="D114" t="n">
-        <v>6005.5</v>
+        <v>8156.3</v>
       </c>
       <c r="E114" t="n">
-        <v>24</v>
-      </c>
-      <c r="F114" t="n">
-        <v>822.6000000000004</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>64.40000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="C115" t="n">
-        <v>852</v>
+        <v>959.3</v>
       </c>
       <c r="D115" t="n">
-        <v>6860.2</v>
+        <v>8048.1</v>
       </c>
       <c r="E115" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>854.6999999999998</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>56.8</v>
+        <v>18.5</v>
       </c>
       <c r="C116" t="n">
-        <v>928.7</v>
+        <v>1083</v>
       </c>
       <c r="D116" t="n">
-        <v>7771.1</v>
+        <v>8752.200000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>910.9000000000005</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>55.4</v>
+        <v>-0.9</v>
       </c>
       <c r="C117" t="n">
-        <v>997.8</v>
+        <v>1106.9</v>
       </c>
       <c r="D117" t="n">
-        <v>9301.1</v>
+        <v>9722.9</v>
       </c>
       <c r="E117" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1530</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>1450.1</v>
+        <v>976.9</v>
       </c>
       <c r="E118" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1450.1</v>
+        <v>-38.8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>54.7</v>
+        <v>-7.9</v>
       </c>
       <c r="C119" t="n">
-        <v>981.6</v>
+        <v>925.7</v>
       </c>
       <c r="D119" t="n">
-        <v>2453.9</v>
+        <v>1877.5</v>
       </c>
       <c r="E119" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1003.8</v>
+        <v>-37.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>41.6</v>
+        <v>-16.2</v>
       </c>
       <c r="C120" t="n">
-        <v>982.9</v>
+        <v>814</v>
       </c>
       <c r="D120" t="n">
-        <v>3375.8</v>
+        <v>2670.1</v>
       </c>
       <c r="E120" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F120" t="n">
-        <v>921.9000000000001</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>36.2</v>
+        <v>-25.2</v>
       </c>
       <c r="C121" t="n">
-        <v>980.9</v>
+        <v>705.6</v>
       </c>
       <c r="D121" t="n">
-        <v>4380.9</v>
+        <v>3404.5</v>
       </c>
       <c r="E121" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1005.099999999999</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>40.5</v>
+        <v>-19.1</v>
       </c>
       <c r="C122" t="n">
-        <v>1072.6</v>
+        <v>770.5</v>
       </c>
       <c r="D122" t="n">
-        <v>5386</v>
+        <v>4256.1</v>
       </c>
       <c r="E122" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1005.1</v>
+        <v>-24.4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>29.6</v>
+        <v>-1.9</v>
       </c>
       <c r="C123" t="n">
-        <v>1072.3</v>
+        <v>879.6</v>
       </c>
       <c r="D123" t="n">
-        <v>6718.1</v>
+        <v>5068.5</v>
       </c>
       <c r="E123" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1332.1</v>
+        <v>-21.8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>14.7</v>
+        <v>5.6</v>
       </c>
       <c r="C124" t="n">
-        <v>1012.4</v>
+        <v>928.8</v>
       </c>
       <c r="D124" t="n">
-        <v>7547.6</v>
+        <v>5948.7</v>
       </c>
       <c r="E124" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F124" t="n">
-        <v>829.5</v>
+        <v>-19.6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>12.7</v>
+        <v>10.8</v>
       </c>
       <c r="C125" t="n">
-        <v>1017.9</v>
+        <v>939.5</v>
       </c>
       <c r="D125" t="n">
-        <v>8592.5</v>
+        <v>7043.1</v>
       </c>
       <c r="E125" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1044.9</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="C126" t="n">
-        <v>975.9</v>
+        <v>994.5</v>
       </c>
       <c r="D126" t="n">
-        <v>9521.799999999999</v>
+        <v>10106.1</v>
       </c>
       <c r="E126" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>929.2999999999993</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-2.8</v>
+        <v>-2.1</v>
       </c>
       <c r="C127" t="n">
-        <v>982.4</v>
+        <v>1084.5</v>
       </c>
       <c r="D127" t="n">
-        <v>10481.3</v>
+        <v>11222.3</v>
       </c>
       <c r="E127" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F127" t="n">
-        <v>959.5</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="C128" t="n">
-        <v>1130.5</v>
+        <v>1178.9</v>
       </c>
       <c r="D128" t="n">
-        <v>11770.7</v>
+        <v>12314.1</v>
       </c>
       <c r="E128" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1289.400000000001</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>1714</v>
+        <v>1623.2</v>
       </c>
       <c r="E129" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1714</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6.3</v>
+        <v>27.3</v>
       </c>
       <c r="C130" t="n">
-        <v>1025.8</v>
+        <v>1084.1</v>
       </c>
       <c r="D130" t="n">
-        <v>2491.2</v>
+        <v>2743.6</v>
       </c>
       <c r="E130" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F130" t="n">
-        <v>777.1999999999998</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-4.6</v>
+        <v>26</v>
       </c>
       <c r="C131" t="n">
-        <v>972.8</v>
+        <v>1018.4</v>
       </c>
       <c r="D131" t="n">
-        <v>3469.8</v>
+        <v>3696.1</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>978.6000000000004</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5.9</v>
+        <v>50.8</v>
       </c>
       <c r="C132" t="n">
-        <v>1047.7</v>
+        <v>1079.4</v>
       </c>
       <c r="D132" t="n">
-        <v>4536.2</v>
+        <v>4755.7</v>
       </c>
       <c r="E132" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1066.4</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-6.8</v>
+        <v>44.2</v>
       </c>
       <c r="C133" t="n">
-        <v>1046.1</v>
+        <v>1132.5</v>
       </c>
       <c r="D133" t="n">
-        <v>5562</v>
+        <v>5961.1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1025.8</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.7</v>
+        <v>26.7</v>
       </c>
       <c r="C134" t="n">
-        <v>1047.7</v>
+        <v>1051.8</v>
       </c>
       <c r="D134" t="n">
-        <v>6628</v>
+        <v>7055.5</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1066</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="C135" t="n">
-        <v>1052.9</v>
+        <v>967</v>
       </c>
       <c r="D135" t="n">
-        <v>7697.6</v>
+        <v>8012.5</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1069.6</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.8</v>
+        <v>11.2</v>
       </c>
       <c r="C136" t="n">
-        <v>1023.1</v>
+        <v>1015.7</v>
       </c>
       <c r="D136" t="n">
-        <v>8716</v>
+        <v>9073.4</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1018.4</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>6.5</v>
+        <v>-20</v>
       </c>
       <c r="C137" t="n">
-        <v>1035.8</v>
+        <v>798</v>
       </c>
       <c r="D137" t="n">
-        <v>9716</v>
+        <v>9019.200000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1000</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>4.3</v>
+        <v>-14.2</v>
       </c>
       <c r="C138" t="n">
-        <v>1534.2</v>
+        <v>929.2</v>
       </c>
       <c r="D138" t="n">
-        <v>15452.3</v>
+        <v>9948</v>
       </c>
       <c r="E138" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>5736.299999999999</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>6.9</v>
+        <v>-28</v>
       </c>
       <c r="C139" t="n">
-        <v>1642.3</v>
+        <v>857.8</v>
       </c>
       <c r="D139" t="n">
-        <v>17060</v>
+        <v>10803.6</v>
       </c>
       <c r="E139" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1607.700000000001</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>1586.4</v>
+        <v>1493.8</v>
       </c>
       <c r="E140" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1586.4</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-3.8</v>
+        <v>-2.6</v>
       </c>
       <c r="C141" t="n">
-        <v>1001.9</v>
+        <v>1069.4</v>
       </c>
       <c r="D141" t="n">
-        <v>2592.6</v>
+        <v>2554.1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1006.2</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-5.9</v>
+        <v>-3</v>
       </c>
       <c r="C142" t="n">
-        <v>934.3</v>
+        <v>1005.8</v>
       </c>
       <c r="D142" t="n">
-        <v>3392.6</v>
+        <v>3560.6</v>
       </c>
       <c r="E142" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="F142" t="n">
-        <v>800</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-14.7</v>
+        <v>-2.9</v>
       </c>
       <c r="C143" t="n">
-        <v>965.5</v>
+        <v>1074.7</v>
       </c>
       <c r="D143" t="n">
-        <v>4611.6</v>
+        <v>4589.1</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.6</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1219</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-20.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>857.3</v>
+        <v>1041.1</v>
       </c>
       <c r="D144" t="n">
-        <v>5095</v>
+        <v>5657.2</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.6</v>
-      </c>
-      <c r="F144" t="n">
-        <v>483.3999999999996</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-20.6</v>
+        <v>-11.8</v>
       </c>
       <c r="C145" t="n">
-        <v>873.2</v>
+        <v>929.7</v>
       </c>
       <c r="D145" t="n">
-        <v>6348</v>
+        <v>6629.7</v>
       </c>
       <c r="E145" t="n">
-        <v>-9.6</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1253</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-20.2</v>
+        <v>-13.8</v>
       </c>
       <c r="C146" t="n">
-        <v>862.3</v>
+        <v>831</v>
       </c>
       <c r="D146" t="n">
-        <v>7338.3</v>
+        <v>7481.8</v>
       </c>
       <c r="E146" t="n">
         <v>-6.7</v>
       </c>
-      <c r="F146" t="n">
-        <v>990.3000000000002</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-24.9</v>
+        <v>-22</v>
       </c>
       <c r="C147" t="n">
-        <v>840.4</v>
+        <v>795.6</v>
       </c>
       <c r="D147" t="n">
-        <v>8156.3</v>
+        <v>8236.6</v>
       </c>
       <c r="E147" t="n">
-        <v>-12.4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>818</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>-21.6</v>
-      </c>
-      <c r="C148" t="n">
-        <v>839.8</v>
-      </c>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>8966</v>
+        <v>1525.8</v>
       </c>
       <c r="E148" t="n">
-        <v>-11.8</v>
-      </c>
-      <c r="F148" t="n">
-        <v>809.6999999999998</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-21.5</v>
+        <v>4.2</v>
       </c>
       <c r="C149" t="n">
-        <v>879.5</v>
+        <v>1276.9</v>
       </c>
       <c r="D149" t="n">
-        <v>9824</v>
+        <v>3088</v>
       </c>
       <c r="E149" t="n">
-        <v>-12.4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>858</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-13.9</v>
+        <v>0.4</v>
       </c>
       <c r="C150" t="n">
-        <v>1048.2</v>
+        <v>1174.6</v>
       </c>
       <c r="D150" t="n">
-        <v>10899.2</v>
+        <v>4218.4</v>
       </c>
       <c r="E150" t="n">
-        <v>-12.4</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1075.200000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1244.4</v>
+      </c>
       <c r="D151" t="n">
-        <v>976.9</v>
+        <v>5263.3</v>
       </c>
       <c r="E151" t="n">
-        <v>-38.8</v>
-      </c>
-      <c r="F151" t="n">
-        <v>976.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-7.9</v>
+        <v>8.5</v>
       </c>
       <c r="C152" t="n">
-        <v>925.7</v>
+        <v>1237.7</v>
       </c>
       <c r="D152" t="n">
-        <v>1877.5</v>
+        <v>6423.9</v>
       </c>
       <c r="E152" t="n">
-        <v>-37.2</v>
-      </c>
-      <c r="F152" t="n">
-        <v>900.6</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>-16.2</v>
-      </c>
-      <c r="C153" t="n">
-        <v>814</v>
-      </c>
-      <c r="D153" t="n">
-        <v>2670.1</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-24.6</v>
-      </c>
-      <c r="F153" t="n">
-        <v>792.5999999999999</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>-25.2</v>
-      </c>
-      <c r="C154" t="n">
-        <v>705.6</v>
-      </c>
-      <c r="D154" t="n">
-        <v>3404.5</v>
-      </c>
-      <c r="E154" t="n">
-        <v>-24</v>
-      </c>
-      <c r="F154" t="n">
-        <v>734.4000000000001</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>-19.1</v>
-      </c>
-      <c r="C155" t="n">
-        <v>770.5</v>
-      </c>
-      <c r="D155" t="n">
-        <v>4256.1</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-24.4</v>
-      </c>
-      <c r="F155" t="n">
-        <v>851.6000000000004</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="C156" t="n">
-        <v>879.6</v>
-      </c>
-      <c r="D156" t="n">
-        <v>5068.5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-21.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>812.3999999999996</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C157" t="n">
-        <v>928.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>5948.7</v>
-      </c>
-      <c r="E157" t="n">
-        <v>-19.6</v>
-      </c>
-      <c r="F157" t="n">
-        <v>880.1999999999998</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C158" t="n">
-        <v>939.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>7043.1</v>
-      </c>
-      <c r="E158" t="n">
-        <v>-12.8</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1094.400000000001</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C159" t="n">
-        <v>959.3</v>
-      </c>
-      <c r="D159" t="n">
-        <v>8048.1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>-12</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1083</v>
-      </c>
-      <c r="D160" t="n">
-        <v>8752.200000000001</v>
-      </c>
-      <c r="E160" t="n">
-        <v>-11.4</v>
-      </c>
-      <c r="F160" t="n">
-        <v>704.1000000000004</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1106.9</v>
-      </c>
-      <c r="D161" t="n">
-        <v>9722.9</v>
-      </c>
-      <c r="E161" t="n">
-        <v>-11.8</v>
-      </c>
-      <c r="F161" t="n">
-        <v>970.6999999999989</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="n">
-        <v>1623.2</v>
-      </c>
-      <c r="E162" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1623.2</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1084.1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>2743.6</v>
-      </c>
-      <c r="E163" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1120.4</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>26</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1018.4</v>
-      </c>
-      <c r="D164" t="n">
-        <v>3696.1</v>
-      </c>
-      <c r="E164" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F164" t="n">
-        <v>952.5</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1079.4</v>
-      </c>
-      <c r="D165" t="n">
-        <v>4755.7</v>
-      </c>
-      <c r="E165" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1059.6</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1132.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>5961.1</v>
-      </c>
-      <c r="E166" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1205.400000000001</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1051.8</v>
-      </c>
-      <c r="D167" t="n">
-        <v>7055.5</v>
-      </c>
-      <c r="E167" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1094.4</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C168" t="n">
-        <v>967</v>
-      </c>
-      <c r="D168" t="n">
-        <v>8012.5</v>
-      </c>
-      <c r="E168" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F168" t="n">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1015.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9073.4</v>
-      </c>
-      <c r="E169" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1060.9</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="C170" t="n">
-        <v>994.5</v>
-      </c>
-      <c r="D170" t="n">
-        <v>10106.1</v>
-      </c>
-      <c r="E170" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1032.700000000001</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1084.5</v>
-      </c>
-      <c r="D171" t="n">
-        <v>11222.3</v>
-      </c>
-      <c r="E171" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1116.199999999999</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1178.9</v>
-      </c>
-      <c r="D172" t="n">
-        <v>12314.1</v>
-      </c>
-      <c r="E172" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1091.800000000001</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
